--- a/CD/TasksheetFinal.xlsx
+++ b/CD/TasksheetFinal.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PhuongND\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Capstone Project\CD\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -129,7 +129,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="90">
   <si>
     <t>No.</t>
   </si>
@@ -396,6 +396,9 @@
   </si>
   <si>
     <t>Function Point</t>
+  </si>
+  <si>
+    <t>Ranks Management</t>
   </si>
 </sst>
 </file>
@@ -629,6 +632,12 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -636,12 +645,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -955,10 +958,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I216"/>
+  <dimension ref="A1:I222"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H128" sqref="H128:H131"/>
+    <sheetView tabSelected="1" topLeftCell="A191" workbookViewId="0">
+      <selection activeCell="F176" sqref="F176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1002,10 +1005,10 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75">
-      <c r="A2" s="30">
+      <c r="A2" s="27">
         <v>1</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="27" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="15" t="s">
@@ -1021,8 +1024,8 @@
       <c r="I2" s="16"/>
     </row>
     <row r="3" spans="1:9" ht="15.75">
-      <c r="A3" s="31"/>
-      <c r="B3" s="31"/>
+      <c r="A3" s="28"/>
+      <c r="B3" s="28"/>
       <c r="C3" s="4" t="s">
         <v>31</v>
       </c>
@@ -1036,8 +1039,8 @@
       <c r="I3" s="14"/>
     </row>
     <row r="4" spans="1:9" ht="15.75">
-      <c r="A4" s="31"/>
-      <c r="B4" s="31"/>
+      <c r="A4" s="28"/>
+      <c r="B4" s="28"/>
       <c r="C4" s="4" t="s">
         <v>32</v>
       </c>
@@ -1051,8 +1054,8 @@
       <c r="I4" s="14"/>
     </row>
     <row r="5" spans="1:9" ht="15.75">
-      <c r="A5" s="31"/>
-      <c r="B5" s="31"/>
+      <c r="A5" s="28"/>
+      <c r="B5" s="28"/>
       <c r="C5" s="4" t="s">
         <v>33</v>
       </c>
@@ -1066,10 +1069,10 @@
       <c r="I5" s="14"/>
     </row>
     <row r="6" spans="1:9" ht="15.75">
-      <c r="A6" s="31">
+      <c r="A6" s="28">
         <v>2</v>
       </c>
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="28" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="4" t="s">
@@ -1085,8 +1088,8 @@
       <c r="I6" s="14"/>
     </row>
     <row r="7" spans="1:9" ht="15.75">
-      <c r="A7" s="31"/>
-      <c r="B7" s="31"/>
+      <c r="A7" s="28"/>
+      <c r="B7" s="28"/>
       <c r="C7" s="4" t="s">
         <v>10</v>
       </c>
@@ -1100,8 +1103,8 @@
       <c r="I7" s="14"/>
     </row>
     <row r="8" spans="1:9" ht="15.75">
-      <c r="A8" s="31"/>
-      <c r="B8" s="31"/>
+      <c r="A8" s="28"/>
+      <c r="B8" s="28"/>
       <c r="C8" s="4" t="s">
         <v>11</v>
       </c>
@@ -1115,8 +1118,8 @@
       <c r="I8" s="14"/>
     </row>
     <row r="9" spans="1:9" ht="15.75">
-      <c r="A9" s="31"/>
-      <c r="B9" s="31"/>
+      <c r="A9" s="28"/>
+      <c r="B9" s="28"/>
       <c r="C9" s="4" t="s">
         <v>12</v>
       </c>
@@ -1130,10 +1133,10 @@
       <c r="I9" s="14"/>
     </row>
     <row r="10" spans="1:9" ht="15.75">
-      <c r="A10" s="31">
+      <c r="A10" s="28">
         <v>3</v>
       </c>
-      <c r="B10" s="31" t="s">
+      <c r="B10" s="28" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="4" t="s">
@@ -1149,8 +1152,8 @@
       <c r="I10" s="14"/>
     </row>
     <row r="11" spans="1:9" ht="15.75">
-      <c r="A11" s="31"/>
-      <c r="B11" s="31"/>
+      <c r="A11" s="28"/>
+      <c r="B11" s="28"/>
       <c r="C11" s="5" t="s">
         <v>14</v>
       </c>
@@ -1162,8 +1165,8 @@
       <c r="I11" s="14"/>
     </row>
     <row r="12" spans="1:9" ht="15.75">
-      <c r="A12" s="31"/>
-      <c r="B12" s="31"/>
+      <c r="A12" s="28"/>
+      <c r="B12" s="28"/>
       <c r="C12" s="6" t="s">
         <v>15</v>
       </c>
@@ -1177,8 +1180,8 @@
       <c r="I12" s="14"/>
     </row>
     <row r="13" spans="1:9" ht="15.75">
-      <c r="A13" s="31"/>
-      <c r="B13" s="31"/>
+      <c r="A13" s="28"/>
+      <c r="B13" s="28"/>
       <c r="C13" s="7" t="s">
         <v>16</v>
       </c>
@@ -1190,8 +1193,8 @@
       <c r="I13" s="14"/>
     </row>
     <row r="14" spans="1:9" ht="15.75">
-      <c r="A14" s="31"/>
-      <c r="B14" s="31"/>
+      <c r="A14" s="28"/>
+      <c r="B14" s="28"/>
       <c r="C14" s="22" t="s">
         <v>52</v>
       </c>
@@ -1203,8 +1206,8 @@
       <c r="I14" s="14"/>
     </row>
     <row r="15" spans="1:9" ht="15.75">
-      <c r="A15" s="31"/>
-      <c r="B15" s="31"/>
+      <c r="A15" s="28"/>
+      <c r="B15" s="28"/>
       <c r="C15" s="23" t="s">
         <v>53</v>
       </c>
@@ -1218,8 +1221,8 @@
       <c r="I15" s="14"/>
     </row>
     <row r="16" spans="1:9" ht="15.75">
-      <c r="A16" s="31"/>
-      <c r="B16" s="31"/>
+      <c r="A16" s="28"/>
+      <c r="B16" s="28"/>
       <c r="C16" s="23" t="s">
         <v>58</v>
       </c>
@@ -1233,8 +1236,8 @@
       <c r="I16" s="14"/>
     </row>
     <row r="17" spans="1:9" ht="15.75">
-      <c r="A17" s="31"/>
-      <c r="B17" s="31"/>
+      <c r="A17" s="28"/>
+      <c r="B17" s="28"/>
       <c r="C17" s="23" t="s">
         <v>54</v>
       </c>
@@ -1248,10 +1251,10 @@
       <c r="I17" s="14"/>
     </row>
     <row r="18" spans="1:9" ht="15.75">
-      <c r="A18" s="31"/>
-      <c r="B18" s="31"/>
+      <c r="A18" s="28"/>
+      <c r="B18" s="28"/>
       <c r="C18" s="23" t="s">
-        <v>59</v>
+        <v>89</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
@@ -1263,27 +1266,27 @@
       <c r="I18" s="14"/>
     </row>
     <row r="19" spans="1:9" ht="15.75">
-      <c r="A19" s="31"/>
-      <c r="B19" s="31"/>
-      <c r="C19" s="22" t="s">
-        <v>55</v>
+      <c r="A19" s="28"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="23" t="s">
+        <v>59</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
+      <c r="G19" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="H19" s="14"/>
       <c r="I19" s="14"/>
     </row>
     <row r="20" spans="1:9" ht="15.75">
-      <c r="A20" s="31"/>
-      <c r="B20" s="31"/>
-      <c r="C20" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="A20" s="28"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
@@ -1291,10 +1294,10 @@
       <c r="I20" s="14"/>
     </row>
     <row r="21" spans="1:9" ht="15.75">
-      <c r="A21" s="31"/>
-      <c r="B21" s="31"/>
+      <c r="A21" s="28"/>
+      <c r="B21" s="28"/>
       <c r="C21" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>8</v>
@@ -1306,25 +1309,25 @@
       <c r="I21" s="14"/>
     </row>
     <row r="22" spans="1:9" ht="15.75">
-      <c r="A22" s="31"/>
-      <c r="B22" s="31"/>
+      <c r="A22" s="28"/>
+      <c r="B22" s="28"/>
       <c r="C22" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="D22" s="2"/>
+        <v>57</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="E22" s="2"/>
-      <c r="F22" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="14"/>
       <c r="I22" s="14"/>
     </row>
     <row r="23" spans="1:9" ht="15.75">
-      <c r="A23" s="31"/>
-      <c r="B23" s="31"/>
+      <c r="A23" s="28"/>
+      <c r="B23" s="28"/>
       <c r="C23" s="23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
@@ -1336,53 +1339,53 @@
       <c r="I23" s="14"/>
     </row>
     <row r="24" spans="1:9" ht="15.75">
-      <c r="A24" s="31"/>
-      <c r="B24" s="31"/>
-      <c r="C24" s="22" t="s">
-        <v>62</v>
+      <c r="A24" s="28"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="23" t="s">
+        <v>89</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
+      <c r="G24" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="H24" s="14"/>
       <c r="I24" s="14"/>
     </row>
     <row r="25" spans="1:9" ht="15.75">
-      <c r="A25" s="31"/>
-      <c r="B25" s="31"/>
+      <c r="A25" s="28"/>
+      <c r="B25" s="28"/>
       <c r="C25" s="23" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="F25" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G25" s="2"/>
       <c r="H25" s="14"/>
       <c r="I25" s="14"/>
     </row>
     <row r="26" spans="1:9" ht="15.75">
-      <c r="A26" s="31"/>
-      <c r="B26" s="31"/>
-      <c r="C26" s="23" t="s">
-        <v>64</v>
+      <c r="A26" s="28"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="22" t="s">
+        <v>62</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
-      <c r="G26" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="G26" s="2"/>
       <c r="H26" s="14"/>
       <c r="I26" s="14"/>
     </row>
     <row r="27" spans="1:9" ht="15.75">
-      <c r="A27" s="31"/>
-      <c r="B27" s="31"/>
+      <c r="A27" s="28"/>
+      <c r="B27" s="28"/>
       <c r="C27" s="23" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
@@ -1394,10 +1397,10 @@
       <c r="I27" s="14"/>
     </row>
     <row r="28" spans="1:9" ht="15.75">
-      <c r="A28" s="31"/>
-      <c r="B28" s="31"/>
+      <c r="A28" s="28"/>
+      <c r="B28" s="28"/>
       <c r="C28" s="23" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
@@ -1409,25 +1412,25 @@
       <c r="I28" s="14"/>
     </row>
     <row r="29" spans="1:9" ht="15.75">
-      <c r="A29" s="31"/>
-      <c r="B29" s="31"/>
+      <c r="A29" s="28"/>
+      <c r="B29" s="28"/>
       <c r="C29" s="23" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
-      <c r="F29" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="H29" s="14"/>
       <c r="I29" s="14"/>
     </row>
     <row r="30" spans="1:9" ht="15.75">
-      <c r="A30" s="31"/>
-      <c r="B30" s="31"/>
+      <c r="A30" s="28"/>
+      <c r="B30" s="28"/>
       <c r="C30" s="23" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
@@ -1439,40 +1442,40 @@
       <c r="I30" s="14"/>
     </row>
     <row r="31" spans="1:9" ht="15.75">
-      <c r="A31" s="31"/>
-      <c r="B31" s="31"/>
+      <c r="A31" s="28"/>
+      <c r="B31" s="28"/>
       <c r="C31" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>8</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="D31" s="2"/>
       <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
+      <c r="F31" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="G31" s="2"/>
       <c r="H31" s="14"/>
       <c r="I31" s="14"/>
     </row>
     <row r="32" spans="1:9" ht="15.75">
-      <c r="A32" s="31"/>
-      <c r="B32" s="31"/>
+      <c r="A32" s="28"/>
+      <c r="B32" s="28"/>
       <c r="C32" s="23" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
-      <c r="F32" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="H32" s="14"/>
       <c r="I32" s="14"/>
     </row>
     <row r="33" spans="1:9" ht="15.75">
-      <c r="A33" s="31"/>
-      <c r="B33" s="31"/>
+      <c r="A33" s="28"/>
+      <c r="B33" s="28"/>
       <c r="C33" s="23" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>8</v>
@@ -1484,10 +1487,10 @@
       <c r="I33" s="14"/>
     </row>
     <row r="34" spans="1:9" ht="15.75">
-      <c r="A34" s="31"/>
-      <c r="B34" s="31"/>
+      <c r="A34" s="28"/>
+      <c r="B34" s="28"/>
       <c r="C34" s="23" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
@@ -1499,25 +1502,25 @@
       <c r="I34" s="14"/>
     </row>
     <row r="35" spans="1:9" ht="15.75">
-      <c r="A35" s="31"/>
-      <c r="B35" s="31"/>
+      <c r="A35" s="28"/>
+      <c r="B35" s="28"/>
       <c r="C35" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="D35" s="2"/>
+        <v>70</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="E35" s="2"/>
-      <c r="F35" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="F35" s="2"/>
       <c r="G35" s="2"/>
       <c r="H35" s="14"/>
       <c r="I35" s="14"/>
     </row>
     <row r="36" spans="1:9" ht="15.75">
-      <c r="A36" s="31"/>
-      <c r="B36" s="31"/>
+      <c r="A36" s="28"/>
+      <c r="B36" s="28"/>
       <c r="C36" s="23" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
@@ -1529,102 +1532,104 @@
       <c r="I36" s="14"/>
     </row>
     <row r="37" spans="1:9" ht="15.75">
-      <c r="A37" s="31"/>
-      <c r="B37" s="31"/>
+      <c r="A37" s="28"/>
+      <c r="B37" s="28"/>
       <c r="C37" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>8</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="D37" s="2"/>
       <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
+      <c r="F37" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="G37" s="2"/>
       <c r="H37" s="14"/>
       <c r="I37" s="14"/>
     </row>
     <row r="38" spans="1:9" ht="15.75">
-      <c r="A38" s="31"/>
-      <c r="B38" s="31"/>
+      <c r="A38" s="28"/>
+      <c r="B38" s="28"/>
       <c r="C38" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>8</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="D38" s="2"/>
       <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
+      <c r="F38" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="G38" s="2"/>
       <c r="H38" s="14"/>
       <c r="I38" s="14"/>
     </row>
     <row r="39" spans="1:9" ht="15.75">
-      <c r="A39" s="31"/>
-      <c r="B39" s="31"/>
+      <c r="A39" s="28"/>
+      <c r="B39" s="28"/>
       <c r="C39" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="D39" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
-      <c r="G39" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="G39" s="2"/>
       <c r="H39" s="14"/>
       <c r="I39" s="14"/>
     </row>
     <row r="40" spans="1:9" ht="15.75">
-      <c r="A40" s="31"/>
-      <c r="B40" s="31"/>
+      <c r="A40" s="28"/>
+      <c r="B40" s="28"/>
       <c r="C40" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="D40" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
-      <c r="G40" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="G40" s="2"/>
       <c r="H40" s="14"/>
       <c r="I40" s="14"/>
     </row>
     <row r="41" spans="1:9" ht="15.75">
-      <c r="A41" s="31"/>
-      <c r="B41" s="31"/>
+      <c r="A41" s="28"/>
+      <c r="B41" s="28"/>
       <c r="C41" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>8</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="D41" s="2"/>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
+      <c r="G41" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="H41" s="14"/>
       <c r="I41" s="14"/>
     </row>
     <row r="42" spans="1:9" ht="15.75">
-      <c r="A42" s="31"/>
-      <c r="B42" s="31"/>
+      <c r="A42" s="28"/>
+      <c r="B42" s="28"/>
       <c r="C42" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>8</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="D42" s="2"/>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
+      <c r="G42" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="H42" s="14"/>
       <c r="I42" s="14"/>
     </row>
     <row r="43" spans="1:9" ht="15.75">
-      <c r="A43" s="31"/>
-      <c r="B43" s="31"/>
-      <c r="C43" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="D43" s="2"/>
+      <c r="A43" s="28"/>
+      <c r="B43" s="28"/>
+      <c r="C43" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
@@ -1632,83 +1637,81 @@
       <c r="I43" s="14"/>
     </row>
     <row r="44" spans="1:9" ht="15.75">
-      <c r="A44" s="31"/>
-      <c r="B44" s="31"/>
+      <c r="A44" s="28"/>
+      <c r="B44" s="28"/>
       <c r="C44" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2" t="s">
-        <v>8</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E44" s="2"/>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
       <c r="H44" s="14"/>
       <c r="I44" s="14"/>
     </row>
     <row r="45" spans="1:9" ht="15.75">
-      <c r="A45" s="31"/>
-      <c r="B45" s="31"/>
-      <c r="C45" s="23" t="s">
-        <v>84</v>
+      <c r="A45" s="28"/>
+      <c r="B45" s="28"/>
+      <c r="C45" s="22" t="s">
+        <v>82</v>
       </c>
       <c r="D45" s="2"/>
-      <c r="E45" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="E45" s="2"/>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
       <c r="H45" s="14"/>
       <c r="I45" s="14"/>
     </row>
     <row r="46" spans="1:9" ht="15.75">
-      <c r="A46" s="31"/>
-      <c r="B46" s="31"/>
-      <c r="C46" s="7" t="s">
-        <v>17</v>
+      <c r="A46" s="28"/>
+      <c r="B46" s="28"/>
+      <c r="C46" s="23" t="s">
+        <v>83</v>
       </c>
       <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
+      <c r="E46" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
       <c r="H46" s="14"/>
       <c r="I46" s="14"/>
     </row>
     <row r="47" spans="1:9" ht="15.75">
-      <c r="A47" s="31"/>
-      <c r="B47" s="31"/>
-      <c r="C47" s="8" t="s">
-        <v>18</v>
+      <c r="A47" s="28"/>
+      <c r="B47" s="28"/>
+      <c r="C47" s="23" t="s">
+        <v>84</v>
       </c>
       <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
+      <c r="E47" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="F47" s="2"/>
-      <c r="G47" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="G47" s="2"/>
       <c r="H47" s="14"/>
       <c r="I47" s="14"/>
     </row>
     <row r="48" spans="1:9" ht="15.75">
-      <c r="A48" s="31"/>
-      <c r="B48" s="31"/>
-      <c r="C48" s="8" t="s">
-        <v>19</v>
+      <c r="A48" s="28"/>
+      <c r="B48" s="28"/>
+      <c r="C48" s="7" t="s">
+        <v>17</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
-      <c r="G48" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="G48" s="2"/>
       <c r="H48" s="14"/>
       <c r="I48" s="14"/>
     </row>
     <row r="49" spans="1:9" ht="15.75">
-      <c r="A49" s="31"/>
-      <c r="B49" s="31"/>
+      <c r="A49" s="28"/>
+      <c r="B49" s="28"/>
       <c r="C49" s="8" t="s">
-        <v>81</v>
+        <v>18</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
@@ -1720,61 +1723,63 @@
       <c r="I49" s="14"/>
     </row>
     <row r="50" spans="1:9" ht="15.75">
-      <c r="A50" s="31"/>
-      <c r="B50" s="31"/>
-      <c r="C50" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="A50" s="28"/>
+      <c r="B50" s="28"/>
+      <c r="C50" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D50" s="2"/>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
-      <c r="G50" s="2"/>
+      <c r="G50" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="H50" s="14"/>
       <c r="I50" s="14"/>
     </row>
     <row r="51" spans="1:9" ht="15.75">
-      <c r="A51" s="29">
-        <v>4</v>
-      </c>
-      <c r="B51" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="A51" s="28"/>
+      <c r="B51" s="28"/>
+      <c r="C51" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D51" s="2"/>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
-      <c r="G51" s="2"/>
+      <c r="G51" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="H51" s="14"/>
       <c r="I51" s="14"/>
     </row>
     <row r="52" spans="1:9" ht="15.75">
-      <c r="A52" s="33"/>
-      <c r="B52" s="33"/>
-      <c r="C52" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="A52" s="28"/>
+      <c r="B52" s="28"/>
+      <c r="C52" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E52" s="2"/>
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
       <c r="H52" s="14"/>
       <c r="I52" s="14"/>
     </row>
     <row r="53" spans="1:9" ht="15.75">
-      <c r="A53" s="33"/>
-      <c r="B53" s="33"/>
-      <c r="C53" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D53" s="2"/>
+      <c r="A53" s="31">
+        <v>4</v>
+      </c>
+      <c r="B53" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
@@ -1784,13 +1789,13 @@
     <row r="54" spans="1:9" ht="15.75">
       <c r="A54" s="33"/>
       <c r="B54" s="33"/>
-      <c r="C54" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E54" s="2"/>
+      <c r="C54" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
       <c r="H54" s="14"/>
@@ -1799,12 +1804,10 @@
     <row r="55" spans="1:9" ht="15.75">
       <c r="A55" s="33"/>
       <c r="B55" s="33"/>
-      <c r="C55" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="C55" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D55" s="2"/>
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
@@ -1814,10 +1817,12 @@
     <row r="56" spans="1:9" ht="15.75">
       <c r="A56" s="33"/>
       <c r="B56" s="33"/>
-      <c r="C56" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="D56" s="2"/>
+      <c r="C56" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
@@ -1827,10 +1832,12 @@
     <row r="57" spans="1:9" ht="15.75">
       <c r="A57" s="33"/>
       <c r="B57" s="33"/>
-      <c r="C57" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="D57" s="2"/>
+      <c r="C57" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
@@ -1840,243 +1847,231 @@
     <row r="58" spans="1:9" ht="15.75">
       <c r="A58" s="33"/>
       <c r="B58" s="33"/>
-      <c r="C58" s="23" t="s">
-        <v>53</v>
+      <c r="C58" s="25" t="s">
+        <v>24</v>
       </c>
       <c r="D58" s="2"/>
-      <c r="E58" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="E58" s="2"/>
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
-      <c r="H58" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="I58" s="14">
-        <v>1</v>
-      </c>
+      <c r="H58" s="14"/>
+      <c r="I58" s="14"/>
     </row>
     <row r="59" spans="1:9" ht="15.75">
       <c r="A59" s="33"/>
       <c r="B59" s="33"/>
-      <c r="C59" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="C59" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="D59" s="2"/>
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
       <c r="G59" s="2"/>
-      <c r="H59" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="I59" s="14">
-        <v>5</v>
-      </c>
+      <c r="H59" s="14"/>
+      <c r="I59" s="14"/>
     </row>
     <row r="60" spans="1:9" ht="15.75">
       <c r="A60" s="33"/>
       <c r="B60" s="33"/>
       <c r="C60" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D60" s="2"/>
-      <c r="E60" s="2"/>
-      <c r="F60" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="E60" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F60" s="2"/>
       <c r="G60" s="2"/>
       <c r="H60" s="14" t="s">
         <v>24</v>
       </c>
       <c r="I60" s="14">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="15.75">
       <c r="A61" s="33"/>
       <c r="B61" s="33"/>
       <c r="C61" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="D61" s="2"/>
+        <v>58</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
-      <c r="G61" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="G61" s="2"/>
       <c r="H61" s="14" t="s">
         <v>24</v>
       </c>
       <c r="I61" s="14">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="15.75">
       <c r="A62" s="33"/>
       <c r="B62" s="33"/>
-      <c r="C62" s="22" t="s">
-        <v>55</v>
+      <c r="C62" s="23" t="s">
+        <v>54</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
-      <c r="F62" s="2"/>
+      <c r="F62" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="G62" s="2"/>
-      <c r="H62" s="14"/>
-      <c r="I62" s="14"/>
+      <c r="H62" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I62" s="14">
+        <v>4</v>
+      </c>
     </row>
     <row r="63" spans="1:9" ht="15.75">
       <c r="A63" s="33"/>
       <c r="B63" s="33"/>
       <c r="C63" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>8</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="D63" s="2"/>
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
-      <c r="G63" s="2"/>
+      <c r="G63" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="H63" s="14" t="s">
         <v>24</v>
       </c>
       <c r="I63" s="14">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="15.75">
       <c r="A64" s="33"/>
       <c r="B64" s="33"/>
       <c r="C64" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>8</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="D64" s="2"/>
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
-      <c r="G64" s="2"/>
+      <c r="G64" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="H64" s="14" t="s">
         <v>24</v>
       </c>
       <c r="I64" s="14">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="15.75">
       <c r="A65" s="33"/>
       <c r="B65" s="33"/>
-      <c r="C65" s="23" t="s">
-        <v>60</v>
+      <c r="C65" s="22" t="s">
+        <v>55</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
-      <c r="F65" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="F65" s="2"/>
       <c r="G65" s="2"/>
-      <c r="H65" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="I65" s="14">
-        <v>5</v>
-      </c>
+      <c r="H65" s="14"/>
+      <c r="I65" s="14"/>
     </row>
     <row r="66" spans="1:9" ht="15.75">
       <c r="A66" s="33"/>
       <c r="B66" s="33"/>
       <c r="C66" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="D66" s="2"/>
+        <v>56</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="E66" s="2"/>
-      <c r="F66" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="F66" s="2"/>
       <c r="G66" s="2"/>
       <c r="H66" s="14" t="s">
         <v>24</v>
       </c>
       <c r="I66" s="14">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="15.75">
       <c r="A67" s="33"/>
       <c r="B67" s="33"/>
-      <c r="C67" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="D67" s="2"/>
+      <c r="C67" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
       <c r="G67" s="2"/>
-      <c r="H67" s="14"/>
-      <c r="I67" s="14"/>
+      <c r="H67" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I67" s="14">
+        <v>6</v>
+      </c>
     </row>
     <row r="68" spans="1:9" ht="15.75">
       <c r="A68" s="33"/>
       <c r="B68" s="33"/>
       <c r="C68" s="23" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
-      <c r="F68" s="2"/>
-      <c r="G68" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="F68" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G68" s="2"/>
       <c r="H68" s="14" t="s">
         <v>24</v>
       </c>
       <c r="I68" s="14">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="15.75">
       <c r="A69" s="33"/>
       <c r="B69" s="33"/>
       <c r="C69" s="23" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
-      <c r="F69" s="2"/>
-      <c r="G69" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="F69" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G69" s="2"/>
       <c r="H69" s="14" t="s">
         <v>24</v>
       </c>
       <c r="I69" s="14">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="15.75">
       <c r="A70" s="33"/>
       <c r="B70" s="33"/>
-      <c r="C70" s="23" t="s">
-        <v>65</v>
+      <c r="C70" s="22" t="s">
+        <v>62</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
-      <c r="G70" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H70" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="I70" s="14">
-        <v>1</v>
-      </c>
+      <c r="G70" s="2"/>
+      <c r="H70" s="14"/>
+      <c r="I70" s="14"/>
     </row>
     <row r="71" spans="1:9" ht="15.75">
       <c r="A71" s="33"/>
       <c r="B71" s="33"/>
       <c r="C71" s="23" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
@@ -2095,14 +2090,14 @@
       <c r="A72" s="33"/>
       <c r="B72" s="33"/>
       <c r="C72" s="23" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
-      <c r="F72" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G72" s="2"/>
+      <c r="F72" s="2"/>
+      <c r="G72" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="H72" s="14" t="s">
         <v>24</v>
       </c>
@@ -2114,7 +2109,7 @@
       <c r="A73" s="33"/>
       <c r="B73" s="33"/>
       <c r="C73" s="23" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" s="2"/>
@@ -2133,14 +2128,14 @@
       <c r="A74" s="33"/>
       <c r="B74" s="33"/>
       <c r="C74" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>8</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="D74" s="2"/>
       <c r="E74" s="2"/>
       <c r="F74" s="2"/>
-      <c r="G74" s="2"/>
+      <c r="G74" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="H74" s="14" t="s">
         <v>24</v>
       </c>
@@ -2152,7 +2147,7 @@
       <c r="A75" s="33"/>
       <c r="B75" s="33"/>
       <c r="C75" s="23" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" s="2"/>
@@ -2171,14 +2166,14 @@
       <c r="A76" s="33"/>
       <c r="B76" s="33"/>
       <c r="C76" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>8</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="D76" s="2"/>
       <c r="E76" s="2"/>
       <c r="F76" s="2"/>
-      <c r="G76" s="2"/>
+      <c r="G76" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="H76" s="14" t="s">
         <v>24</v>
       </c>
@@ -2190,13 +2185,13 @@
       <c r="A77" s="33"/>
       <c r="B77" s="33"/>
       <c r="C77" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="D77" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="E77" s="2"/>
-      <c r="F77" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="F77" s="2"/>
       <c r="G77" s="2"/>
       <c r="H77" s="14" t="s">
         <v>24</v>
@@ -2209,7 +2204,7 @@
       <c r="A78" s="33"/>
       <c r="B78" s="33"/>
       <c r="C78" s="23" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" s="2"/>
@@ -2228,13 +2223,13 @@
       <c r="A79" s="33"/>
       <c r="B79" s="33"/>
       <c r="C79" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="D79" s="2"/>
+        <v>70</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="E79" s="2"/>
-      <c r="F79" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="F79" s="2"/>
       <c r="G79" s="2"/>
       <c r="H79" s="14" t="s">
         <v>24</v>
@@ -2247,13 +2242,13 @@
       <c r="A80" s="33"/>
       <c r="B80" s="33"/>
       <c r="C80" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>8</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="D80" s="2"/>
       <c r="E80" s="2"/>
-      <c r="F80" s="2"/>
+      <c r="F80" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="G80" s="2"/>
       <c r="H80" s="14" t="s">
         <v>24</v>
@@ -2266,13 +2261,13 @@
       <c r="A81" s="33"/>
       <c r="B81" s="33"/>
       <c r="C81" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>8</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="D81" s="2"/>
       <c r="E81" s="2"/>
-      <c r="F81" s="2"/>
+      <c r="F81" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="G81" s="2"/>
       <c r="H81" s="14" t="s">
         <v>24</v>
@@ -2285,14 +2280,14 @@
       <c r="A82" s="33"/>
       <c r="B82" s="33"/>
       <c r="C82" s="23" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" s="2"/>
-      <c r="F82" s="2"/>
-      <c r="G82" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="F82" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G82" s="2"/>
       <c r="H82" s="14" t="s">
         <v>24</v>
       </c>
@@ -2304,14 +2299,14 @@
       <c r="A83" s="33"/>
       <c r="B83" s="33"/>
       <c r="C83" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="D83" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="E83" s="2"/>
       <c r="F83" s="2"/>
-      <c r="G83" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="G83" s="2"/>
       <c r="H83" s="14" t="s">
         <v>24</v>
       </c>
@@ -2323,7 +2318,7 @@
       <c r="A84" s="33"/>
       <c r="B84" s="33"/>
       <c r="C84" s="23" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>8</v>
@@ -2342,14 +2337,14 @@
       <c r="A85" s="33"/>
       <c r="B85" s="33"/>
       <c r="C85" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>8</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="D85" s="2"/>
       <c r="E85" s="2"/>
       <c r="F85" s="2"/>
-      <c r="G85" s="2"/>
+      <c r="G85" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="H85" s="14" t="s">
         <v>24</v>
       </c>
@@ -2360,26 +2355,32 @@
     <row r="86" spans="1:9" ht="15.75">
       <c r="A86" s="33"/>
       <c r="B86" s="33"/>
-      <c r="C86" s="22" t="s">
-        <v>82</v>
+      <c r="C86" s="23" t="s">
+        <v>78</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" s="2"/>
       <c r="F86" s="2"/>
-      <c r="G86" s="2"/>
-      <c r="H86" s="14"/>
-      <c r="I86" s="14"/>
+      <c r="G86" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H86" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I86" s="14">
+        <v>1</v>
+      </c>
     </row>
     <row r="87" spans="1:9" ht="15.75">
       <c r="A87" s="33"/>
       <c r="B87" s="33"/>
       <c r="C87" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="D87" s="2"/>
-      <c r="E87" s="2" t="s">
-        <v>8</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E87" s="2"/>
       <c r="F87" s="2"/>
       <c r="G87" s="2"/>
       <c r="H87" s="14" t="s">
@@ -2393,12 +2394,12 @@
       <c r="A88" s="33"/>
       <c r="B88" s="33"/>
       <c r="C88" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="D88" s="2"/>
-      <c r="E88" s="2" t="s">
-        <v>8</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E88" s="2"/>
       <c r="F88" s="2"/>
       <c r="G88" s="2"/>
       <c r="H88" s="14" t="s">
@@ -2411,344 +2412,338 @@
     <row r="89" spans="1:9" ht="15.75">
       <c r="A89" s="33"/>
       <c r="B89" s="33"/>
-      <c r="C89" s="12" t="s">
-        <v>85</v>
+      <c r="C89" s="22" t="s">
+        <v>82</v>
       </c>
       <c r="D89" s="2"/>
-      <c r="E89" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="E89" s="2"/>
       <c r="F89" s="2"/>
       <c r="G89" s="2"/>
       <c r="H89" s="14"/>
       <c r="I89" s="14"/>
     </row>
     <row r="90" spans="1:9" ht="15.75">
-      <c r="A90" s="30"/>
-      <c r="B90" s="30"/>
-      <c r="C90" s="12" t="s">
-        <v>86</v>
+      <c r="A90" s="33"/>
+      <c r="B90" s="33"/>
+      <c r="C90" s="23" t="s">
+        <v>83</v>
       </c>
       <c r="D90" s="2"/>
-      <c r="E90" s="2"/>
-      <c r="F90" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="E90" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F90" s="2"/>
       <c r="G90" s="2"/>
-      <c r="H90" s="14"/>
-      <c r="I90" s="14"/>
+      <c r="H90" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I90" s="14">
+        <v>1</v>
+      </c>
     </row>
     <row r="91" spans="1:9" ht="15.75">
-      <c r="A91" s="27">
-        <v>5</v>
-      </c>
-      <c r="B91" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="C91" s="5" t="s">
-        <v>27</v>
+      <c r="A91" s="33"/>
+      <c r="B91" s="33"/>
+      <c r="C91" s="23" t="s">
+        <v>84</v>
       </c>
       <c r="D91" s="2"/>
-      <c r="E91" s="2"/>
-      <c r="F91" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="E91" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F91" s="2"/>
       <c r="G91" s="2"/>
-      <c r="H91" s="14"/>
-      <c r="I91" s="14"/>
+      <c r="H91" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I91" s="14">
+        <v>1</v>
+      </c>
     </row>
     <row r="92" spans="1:9" ht="15.75">
-      <c r="A92" s="32"/>
-      <c r="B92" s="31"/>
-      <c r="C92" s="5" t="s">
-        <v>87</v>
+      <c r="A92" s="33"/>
+      <c r="B92" s="33"/>
+      <c r="C92" s="12" t="s">
+        <v>85</v>
       </c>
       <c r="D92" s="2"/>
-      <c r="E92" s="2"/>
+      <c r="E92" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="F92" s="2"/>
       <c r="G92" s="2"/>
       <c r="H92" s="14"/>
       <c r="I92" s="14"/>
     </row>
     <row r="93" spans="1:9" ht="15.75">
-      <c r="A93" s="32"/>
-      <c r="B93" s="31"/>
-      <c r="C93" s="7" t="s">
-        <v>52</v>
+      <c r="A93" s="27"/>
+      <c r="B93" s="27"/>
+      <c r="C93" s="12" t="s">
+        <v>86</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" s="2"/>
-      <c r="F93" s="2"/>
+      <c r="F93" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="G93" s="2"/>
       <c r="H93" s="14"/>
       <c r="I93" s="14"/>
     </row>
     <row r="94" spans="1:9" ht="15.75">
-      <c r="A94" s="32"/>
-      <c r="B94" s="31"/>
-      <c r="C94" s="8" t="s">
-        <v>53</v>
+      <c r="A94" s="29">
+        <v>5</v>
+      </c>
+      <c r="B94" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="D94" s="2"/>
-      <c r="E94" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F94" s="2"/>
+      <c r="E94" s="2"/>
+      <c r="F94" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="G94" s="2"/>
-      <c r="H94" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="I94" s="14">
-        <v>1</v>
-      </c>
+      <c r="H94" s="14"/>
+      <c r="I94" s="14"/>
     </row>
     <row r="95" spans="1:9" ht="15.75">
       <c r="A95" s="32"/>
-      <c r="B95" s="31"/>
-      <c r="C95" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="B95" s="28"/>
+      <c r="C95" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D95" s="2"/>
       <c r="E95" s="2"/>
       <c r="F95" s="2"/>
       <c r="G95" s="2"/>
-      <c r="H95" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="I95" s="14">
-        <v>2</v>
-      </c>
+      <c r="H95" s="14"/>
+      <c r="I95" s="14"/>
     </row>
     <row r="96" spans="1:9" ht="15.75">
       <c r="A96" s="32"/>
-      <c r="B96" s="31"/>
-      <c r="C96" s="8" t="s">
-        <v>54</v>
+      <c r="B96" s="28"/>
+      <c r="C96" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="D96" s="2"/>
       <c r="E96" s="2"/>
-      <c r="F96" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="F96" s="2"/>
       <c r="G96" s="2"/>
-      <c r="H96" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="I96" s="14">
-        <v>1</v>
-      </c>
+      <c r="H96" s="14"/>
+      <c r="I96" s="14"/>
     </row>
     <row r="97" spans="1:9" ht="15.75">
       <c r="A97" s="32"/>
-      <c r="B97" s="31"/>
+      <c r="B97" s="28"/>
       <c r="C97" s="8" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D97" s="2"/>
-      <c r="E97" s="2"/>
+      <c r="E97" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="F97" s="2"/>
-      <c r="G97" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="G97" s="2"/>
       <c r="H97" s="14" t="s">
         <v>88</v>
       </c>
       <c r="I97" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:9" ht="15.75">
       <c r="A98" s="32"/>
-      <c r="B98" s="31"/>
-      <c r="C98" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D98" s="2"/>
+      <c r="B98" s="28"/>
+      <c r="C98" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="E98" s="2"/>
       <c r="F98" s="2"/>
       <c r="G98" s="2"/>
-      <c r="H98" s="14"/>
-      <c r="I98" s="14"/>
+      <c r="H98" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="I98" s="14">
+        <v>2</v>
+      </c>
     </row>
     <row r="99" spans="1:9" ht="15.75">
       <c r="A99" s="32"/>
-      <c r="B99" s="31"/>
+      <c r="B99" s="28"/>
       <c r="C99" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>8</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="D99" s="2"/>
       <c r="E99" s="2"/>
-      <c r="F99" s="2"/>
+      <c r="F99" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="G99" s="2"/>
       <c r="H99" s="14" t="s">
         <v>88</v>
       </c>
       <c r="I99" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:9" ht="15.75">
       <c r="A100" s="32"/>
-      <c r="B100" s="31"/>
+      <c r="B100" s="28"/>
       <c r="C100" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>8</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="D100" s="2"/>
       <c r="E100" s="2"/>
       <c r="F100" s="2"/>
-      <c r="G100" s="2"/>
+      <c r="G100" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="H100" s="14" t="s">
         <v>88</v>
       </c>
       <c r="I100" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:9" ht="15.75">
       <c r="A101" s="32"/>
-      <c r="B101" s="31"/>
+      <c r="B101" s="28"/>
       <c r="C101" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D101" s="2"/>
       <c r="E101" s="2"/>
-      <c r="F101" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G101" s="2"/>
+      <c r="F101" s="2"/>
+      <c r="G101" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="H101" s="14" t="s">
         <v>88</v>
       </c>
       <c r="I101" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:9" ht="15.75">
       <c r="A102" s="32"/>
-      <c r="B102" s="31"/>
-      <c r="C102" s="8" t="s">
-        <v>61</v>
+      <c r="B102" s="28"/>
+      <c r="C102" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="D102" s="2"/>
       <c r="E102" s="2"/>
-      <c r="F102" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="F102" s="2"/>
       <c r="G102" s="2"/>
-      <c r="H102" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="I102" s="14">
-        <v>2</v>
-      </c>
+      <c r="H102" s="14"/>
+      <c r="I102" s="14"/>
     </row>
     <row r="103" spans="1:9" ht="15.75">
       <c r="A103" s="32"/>
-      <c r="B103" s="31"/>
-      <c r="C103" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="D103" s="2"/>
+      <c r="B103" s="28"/>
+      <c r="C103" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="E103" s="2"/>
       <c r="F103" s="2"/>
       <c r="G103" s="2"/>
-      <c r="H103" s="14"/>
-      <c r="I103" s="14"/>
+      <c r="H103" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="I103" s="14">
+        <v>2</v>
+      </c>
     </row>
     <row r="104" spans="1:9" ht="15.75">
       <c r="A104" s="32"/>
-      <c r="B104" s="31"/>
+      <c r="B104" s="28"/>
       <c r="C104" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="D104" s="2"/>
+        <v>57</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="E104" s="2"/>
       <c r="F104" s="2"/>
-      <c r="G104" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="G104" s="2"/>
       <c r="H104" s="14" t="s">
         <v>88</v>
       </c>
       <c r="I104" s="14">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="105" spans="1:9" ht="15.75">
       <c r="A105" s="32"/>
-      <c r="B105" s="31"/>
+      <c r="B105" s="28"/>
       <c r="C105" s="8" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D105" s="2"/>
       <c r="E105" s="2"/>
-      <c r="F105" s="2"/>
-      <c r="G105" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="F105" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G105" s="2"/>
       <c r="H105" s="14" t="s">
         <v>88</v>
       </c>
       <c r="I105" s="14">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="106" spans="1:9" ht="15.75">
       <c r="A106" s="32"/>
-      <c r="B106" s="31"/>
+      <c r="B106" s="28"/>
       <c r="C106" s="8" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D106" s="2"/>
       <c r="E106" s="2"/>
-      <c r="F106" s="2"/>
-      <c r="G106" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="F106" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G106" s="2"/>
       <c r="H106" s="14" t="s">
         <v>88</v>
       </c>
       <c r="I106" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:9" ht="15.75">
       <c r="A107" s="32"/>
-      <c r="B107" s="31"/>
-      <c r="C107" s="8" t="s">
-        <v>66</v>
+      <c r="B107" s="28"/>
+      <c r="C107" s="7" t="s">
+        <v>62</v>
       </c>
       <c r="D107" s="2"/>
       <c r="E107" s="2"/>
       <c r="F107" s="2"/>
-      <c r="G107" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H107" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="I107" s="14">
-        <v>1</v>
-      </c>
+      <c r="G107" s="2"/>
+      <c r="H107" s="14"/>
+      <c r="I107" s="14"/>
     </row>
     <row r="108" spans="1:9" ht="15.75">
       <c r="A108" s="32"/>
-      <c r="B108" s="31"/>
+      <c r="B108" s="28"/>
       <c r="C108" s="8" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D108" s="2"/>
       <c r="E108" s="2"/>
-      <c r="F108" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G108" s="2"/>
+      <c r="F108" s="2"/>
+      <c r="G108" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="H108" s="14" t="s">
         <v>88</v>
       </c>
@@ -2758,9 +2753,9 @@
     </row>
     <row r="109" spans="1:9" ht="15.75">
       <c r="A109" s="32"/>
-      <c r="B109" s="31"/>
+      <c r="B109" s="28"/>
       <c r="C109" s="8" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D109" s="2"/>
       <c r="E109" s="2"/>
@@ -2777,16 +2772,16 @@
     </row>
     <row r="110" spans="1:9" ht="15.75">
       <c r="A110" s="32"/>
-      <c r="B110" s="31"/>
+      <c r="B110" s="28"/>
       <c r="C110" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>8</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="D110" s="2"/>
       <c r="E110" s="2"/>
       <c r="F110" s="2"/>
-      <c r="G110" s="2"/>
+      <c r="G110" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="H110" s="14" t="s">
         <v>88</v>
       </c>
@@ -2796,72 +2791,72 @@
     </row>
     <row r="111" spans="1:9" ht="15.75">
       <c r="A111" s="32"/>
-      <c r="B111" s="31"/>
+      <c r="B111" s="28"/>
       <c r="C111" s="8" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D111" s="2"/>
       <c r="E111" s="2"/>
-      <c r="F111" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G111" s="2"/>
+      <c r="F111" s="2"/>
+      <c r="G111" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="H111" s="14" t="s">
         <v>88</v>
       </c>
       <c r="I111" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:9" ht="15.75">
       <c r="A112" s="32"/>
-      <c r="B112" s="31"/>
+      <c r="B112" s="28"/>
       <c r="C112" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>8</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="D112" s="2"/>
       <c r="E112" s="2"/>
-      <c r="F112" s="2"/>
+      <c r="F112" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="G112" s="2"/>
       <c r="H112" s="14" t="s">
         <v>88</v>
       </c>
       <c r="I112" s="14">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:9" ht="15.75">
       <c r="A113" s="32"/>
-      <c r="B113" s="31"/>
+      <c r="B113" s="28"/>
       <c r="C113" s="8" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="D113" s="2"/>
       <c r="E113" s="2"/>
-      <c r="F113" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G113" s="2"/>
+      <c r="F113" s="2"/>
+      <c r="G113" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="H113" s="14" t="s">
         <v>88</v>
       </c>
       <c r="I113" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:9" ht="15.75">
       <c r="A114" s="32"/>
-      <c r="B114" s="31"/>
+      <c r="B114" s="28"/>
       <c r="C114" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="D114" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="E114" s="2"/>
-      <c r="F114" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="F114" s="2"/>
       <c r="G114" s="2"/>
       <c r="H114" s="14" t="s">
         <v>88</v>
@@ -2872,9 +2867,9 @@
     </row>
     <row r="115" spans="1:9" ht="15.75">
       <c r="A115" s="32"/>
-      <c r="B115" s="31"/>
+      <c r="B115" s="28"/>
       <c r="C115" s="8" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D115" s="2"/>
       <c r="E115" s="2"/>
@@ -2886,14 +2881,14 @@
         <v>88</v>
       </c>
       <c r="I115" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:9" ht="15.75">
       <c r="A116" s="32"/>
-      <c r="B116" s="31"/>
+      <c r="B116" s="28"/>
       <c r="C116" s="8" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D116" s="2" t="s">
         <v>8</v>
@@ -2910,15 +2905,15 @@
     </row>
     <row r="117" spans="1:9" ht="15.75">
       <c r="A117" s="32"/>
-      <c r="B117" s="31"/>
+      <c r="B117" s="28"/>
       <c r="C117" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>8</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="D117" s="2"/>
       <c r="E117" s="2"/>
-      <c r="F117" s="2"/>
+      <c r="F117" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="G117" s="2"/>
       <c r="H117" s="14" t="s">
         <v>88</v>
@@ -2929,47 +2924,47 @@
     </row>
     <row r="118" spans="1:9" ht="15.75">
       <c r="A118" s="32"/>
-      <c r="B118" s="31"/>
+      <c r="B118" s="28"/>
       <c r="C118" s="8" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D118" s="2"/>
       <c r="E118" s="2"/>
-      <c r="F118" s="2"/>
-      <c r="G118" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="F118" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G118" s="2"/>
       <c r="H118" s="14" t="s">
         <v>88</v>
       </c>
       <c r="I118" s="14">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:9" ht="15.75">
       <c r="A119" s="32"/>
-      <c r="B119" s="31"/>
+      <c r="B119" s="28"/>
       <c r="C119" s="8" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D119" s="2"/>
       <c r="E119" s="2"/>
-      <c r="F119" s="2"/>
-      <c r="G119" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="F119" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G119" s="2"/>
       <c r="H119" s="14" t="s">
         <v>88</v>
       </c>
       <c r="I119" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:9" ht="15.75">
       <c r="A120" s="32"/>
-      <c r="B120" s="31"/>
+      <c r="B120" s="28"/>
       <c r="C120" s="8" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D120" s="2" t="s">
         <v>8</v>
@@ -2981,14 +2976,14 @@
         <v>88</v>
       </c>
       <c r="I120" s="14">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="121" spans="1:9" ht="15.75">
       <c r="A121" s="32"/>
-      <c r="B121" s="31"/>
+      <c r="B121" s="28"/>
       <c r="C121" s="8" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D121" s="2" t="s">
         <v>8</v>
@@ -3000,80 +2995,90 @@
         <v>88</v>
       </c>
       <c r="I121" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:9" ht="15.75">
       <c r="A122" s="32"/>
-      <c r="B122" s="31"/>
-      <c r="C122" s="7" t="s">
-        <v>82</v>
+      <c r="B122" s="28"/>
+      <c r="C122" s="8" t="s">
+        <v>77</v>
       </c>
       <c r="D122" s="2"/>
       <c r="E122" s="2"/>
       <c r="F122" s="2"/>
-      <c r="G122" s="2"/>
-      <c r="H122" s="14"/>
-      <c r="I122" s="14"/>
+      <c r="G122" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H122" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="I122" s="14">
+        <v>3</v>
+      </c>
     </row>
     <row r="123" spans="1:9" ht="15.75">
       <c r="A123" s="32"/>
-      <c r="B123" s="31"/>
+      <c r="B123" s="28"/>
       <c r="C123" s="8" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D123" s="2"/>
-      <c r="E123" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="E123" s="2"/>
       <c r="F123" s="2"/>
-      <c r="G123" s="2"/>
+      <c r="G123" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="H123" s="14" t="s">
         <v>88</v>
       </c>
       <c r="I123" s="14">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:9" ht="15.75">
       <c r="A124" s="32"/>
-      <c r="B124" s="31"/>
+      <c r="B124" s="28"/>
       <c r="C124" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="D124" s="2"/>
-      <c r="E124" s="2" t="s">
-        <v>8</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E124" s="2"/>
       <c r="F124" s="2"/>
       <c r="G124" s="2"/>
       <c r="H124" s="14" t="s">
         <v>88</v>
       </c>
       <c r="I124" s="14">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:9" ht="15.75">
       <c r="A125" s="32"/>
-      <c r="B125" s="31"/>
-      <c r="C125" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D125" s="2"/>
+      <c r="B125" s="28"/>
+      <c r="C125" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="E125" s="2"/>
-      <c r="F125" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="F125" s="2"/>
       <c r="G125" s="2"/>
-      <c r="H125" s="14"/>
-      <c r="I125" s="14"/>
+      <c r="H125" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="I125" s="14">
+        <v>1</v>
+      </c>
     </row>
     <row r="126" spans="1:9" ht="15.75">
       <c r="A126" s="32"/>
-      <c r="B126" s="31"/>
-      <c r="C126" s="25" t="s">
-        <v>25</v>
+      <c r="B126" s="28"/>
+      <c r="C126" s="7" t="s">
+        <v>82</v>
       </c>
       <c r="D126" s="2"/>
       <c r="E126" s="2"/>
@@ -3084,95 +3089,103 @@
     </row>
     <row r="127" spans="1:9" ht="15.75">
       <c r="A127" s="32"/>
-      <c r="B127" s="31"/>
-      <c r="C127" s="7" t="s">
-        <v>52</v>
+      <c r="B127" s="28"/>
+      <c r="C127" s="8" t="s">
+        <v>83</v>
       </c>
       <c r="D127" s="2"/>
-      <c r="E127" s="2"/>
+      <c r="E127" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="F127" s="2"/>
       <c r="G127" s="2"/>
-      <c r="H127" s="14"/>
-      <c r="I127" s="14"/>
+      <c r="H127" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="I127" s="14">
+        <v>4</v>
+      </c>
     </row>
     <row r="128" spans="1:9" ht="15.75">
       <c r="A128" s="32"/>
-      <c r="B128" s="31"/>
+      <c r="B128" s="28"/>
       <c r="C128" s="8" t="s">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="D128" s="2"/>
-      <c r="E128" s="2"/>
+      <c r="E128" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="F128" s="2"/>
-      <c r="G128" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H128" s="14"/>
-      <c r="I128" s="14"/>
+      <c r="G128" s="2"/>
+      <c r="H128" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="I128" s="14">
+        <v>4</v>
+      </c>
     </row>
     <row r="129" spans="1:9" ht="15.75">
       <c r="A129" s="32"/>
-      <c r="B129" s="31"/>
-      <c r="C129" s="8" t="s">
-        <v>58</v>
+      <c r="B129" s="28"/>
+      <c r="C129" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="D129" s="2"/>
       <c r="E129" s="2"/>
-      <c r="F129" s="2"/>
-      <c r="G129" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="F129" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G129" s="2"/>
       <c r="H129" s="14"/>
       <c r="I129" s="14"/>
     </row>
     <row r="130" spans="1:9" ht="15.75">
       <c r="A130" s="32"/>
-      <c r="B130" s="31"/>
-      <c r="C130" s="8" t="s">
-        <v>54</v>
+      <c r="B130" s="28"/>
+      <c r="C130" s="25" t="s">
+        <v>25</v>
       </c>
       <c r="D130" s="2"/>
       <c r="E130" s="2"/>
       <c r="F130" s="2"/>
-      <c r="G130" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="G130" s="2"/>
       <c r="H130" s="14"/>
       <c r="I130" s="14"/>
     </row>
     <row r="131" spans="1:9" ht="15.75">
       <c r="A131" s="32"/>
-      <c r="B131" s="31"/>
-      <c r="C131" s="8" t="s">
-        <v>59</v>
+      <c r="B131" s="28"/>
+      <c r="C131" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="D131" s="2"/>
       <c r="E131" s="2"/>
-      <c r="F131" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="F131" s="2"/>
       <c r="G131" s="2"/>
       <c r="H131" s="14"/>
       <c r="I131" s="14"/>
     </row>
     <row r="132" spans="1:9" ht="15.75">
       <c r="A132" s="32"/>
-      <c r="B132" s="31"/>
-      <c r="C132" s="7" t="s">
-        <v>55</v>
+      <c r="B132" s="28"/>
+      <c r="C132" s="8" t="s">
+        <v>53</v>
       </c>
       <c r="D132" s="2"/>
       <c r="E132" s="2"/>
       <c r="F132" s="2"/>
-      <c r="G132" s="2"/>
+      <c r="G132" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="H132" s="14"/>
       <c r="I132" s="14"/>
     </row>
     <row r="133" spans="1:9" ht="15.75">
       <c r="A133" s="32"/>
-      <c r="B133" s="31"/>
+      <c r="B133" s="28"/>
       <c r="C133" s="8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D133" s="2"/>
       <c r="E133" s="2"/>
@@ -3185,9 +3198,9 @@
     </row>
     <row r="134" spans="1:9" ht="15.75">
       <c r="A134" s="32"/>
-      <c r="B134" s="31"/>
+      <c r="B134" s="28"/>
       <c r="C134" s="8" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D134" s="2"/>
       <c r="E134" s="2"/>
@@ -3200,39 +3213,39 @@
     </row>
     <row r="135" spans="1:9" ht="15.75">
       <c r="A135" s="32"/>
-      <c r="B135" s="31"/>
+      <c r="B135" s="28"/>
       <c r="C135" s="8" t="s">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="D135" s="2"/>
       <c r="E135" s="2"/>
-      <c r="F135" s="2"/>
-      <c r="G135" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="F135" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G135" s="2"/>
       <c r="H135" s="14"/>
       <c r="I135" s="14"/>
     </row>
     <row r="136" spans="1:9" ht="15.75">
       <c r="A136" s="32"/>
-      <c r="B136" s="31"/>
+      <c r="B136" s="28"/>
       <c r="C136" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D136" s="2"/>
       <c r="E136" s="2"/>
-      <c r="F136" s="2"/>
-      <c r="G136" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="F136" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G136" s="2"/>
       <c r="H136" s="14"/>
       <c r="I136" s="14"/>
     </row>
     <row r="137" spans="1:9" ht="15.75">
       <c r="A137" s="32"/>
-      <c r="B137" s="31"/>
+      <c r="B137" s="28"/>
       <c r="C137" s="7" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D137" s="2"/>
       <c r="E137" s="2"/>
@@ -3243,84 +3256,82 @@
     </row>
     <row r="138" spans="1:9" ht="15.75">
       <c r="A138" s="32"/>
-      <c r="B138" s="31"/>
+      <c r="B138" s="28"/>
       <c r="C138" s="8" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="D138" s="2"/>
       <c r="E138" s="2"/>
-      <c r="F138" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G138" s="2"/>
+      <c r="F138" s="2"/>
+      <c r="G138" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="H138" s="14"/>
       <c r="I138" s="14"/>
     </row>
     <row r="139" spans="1:9" ht="15.75">
       <c r="A139" s="32"/>
-      <c r="B139" s="31"/>
+      <c r="B139" s="28"/>
       <c r="C139" s="8" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="D139" s="2"/>
       <c r="E139" s="2"/>
-      <c r="F139" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G139" s="2"/>
+      <c r="F139" s="2"/>
+      <c r="G139" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="H139" s="14"/>
       <c r="I139" s="14"/>
     </row>
     <row r="140" spans="1:9" ht="15.75">
       <c r="A140" s="32"/>
-      <c r="B140" s="31"/>
+      <c r="B140" s="28"/>
       <c r="C140" s="8" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D140" s="2"/>
       <c r="E140" s="2"/>
-      <c r="F140" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G140" s="2"/>
+      <c r="F140" s="2"/>
+      <c r="G140" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="H140" s="14"/>
       <c r="I140" s="14"/>
     </row>
     <row r="141" spans="1:9" ht="15.75">
       <c r="A141" s="32"/>
-      <c r="B141" s="31"/>
+      <c r="B141" s="28"/>
       <c r="C141" s="8" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D141" s="2"/>
       <c r="E141" s="2"/>
-      <c r="F141" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G141" s="2"/>
+      <c r="F141" s="2"/>
+      <c r="G141" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="H141" s="14"/>
       <c r="I141" s="14"/>
     </row>
     <row r="142" spans="1:9" ht="15.75">
       <c r="A142" s="32"/>
-      <c r="B142" s="31"/>
-      <c r="C142" s="8" t="s">
-        <v>67</v>
+      <c r="B142" s="28"/>
+      <c r="C142" s="7" t="s">
+        <v>62</v>
       </c>
       <c r="D142" s="2"/>
       <c r="E142" s="2"/>
       <c r="F142" s="2"/>
-      <c r="G142" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="G142" s="2"/>
       <c r="H142" s="14"/>
       <c r="I142" s="14"/>
     </row>
     <row r="143" spans="1:9" ht="15.75">
       <c r="A143" s="32"/>
-      <c r="B143" s="31"/>
+      <c r="B143" s="28"/>
       <c r="C143" s="8" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D143" s="2"/>
       <c r="E143" s="2"/>
@@ -3333,159 +3344,159 @@
     </row>
     <row r="144" spans="1:9" ht="15.75">
       <c r="A144" s="32"/>
-      <c r="B144" s="31"/>
+      <c r="B144" s="28"/>
       <c r="C144" s="8" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="D144" s="2"/>
       <c r="E144" s="2"/>
-      <c r="F144" s="2"/>
-      <c r="G144" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="F144" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G144" s="2"/>
       <c r="H144" s="14"/>
       <c r="I144" s="14"/>
     </row>
     <row r="145" spans="1:9" ht="15.75">
       <c r="A145" s="32"/>
-      <c r="B145" s="31"/>
+      <c r="B145" s="28"/>
       <c r="C145" s="8" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D145" s="2"/>
       <c r="E145" s="2"/>
-      <c r="F145" s="2"/>
-      <c r="G145" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="F145" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G145" s="2"/>
       <c r="H145" s="14"/>
       <c r="I145" s="14"/>
     </row>
     <row r="146" spans="1:9" ht="15.75">
       <c r="A146" s="32"/>
-      <c r="B146" s="31"/>
+      <c r="B146" s="28"/>
       <c r="C146" s="8" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D146" s="2"/>
       <c r="E146" s="2"/>
-      <c r="F146" s="2"/>
-      <c r="G146" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="F146" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G146" s="2"/>
       <c r="H146" s="14"/>
       <c r="I146" s="14"/>
     </row>
     <row r="147" spans="1:9" ht="15.75">
       <c r="A147" s="32"/>
-      <c r="B147" s="31"/>
+      <c r="B147" s="28"/>
       <c r="C147" s="8" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="D147" s="2"/>
-      <c r="E147" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="E147" s="2"/>
       <c r="F147" s="2"/>
-      <c r="G147" s="2"/>
+      <c r="G147" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="H147" s="14"/>
       <c r="I147" s="14"/>
     </row>
     <row r="148" spans="1:9" ht="15.75">
       <c r="A148" s="32"/>
-      <c r="B148" s="31"/>
+      <c r="B148" s="28"/>
       <c r="C148" s="8" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D148" s="2"/>
-      <c r="E148" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F148" s="2"/>
+      <c r="E148" s="2"/>
+      <c r="F148" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="G148" s="2"/>
       <c r="H148" s="14"/>
       <c r="I148" s="14"/>
     </row>
     <row r="149" spans="1:9" ht="15.75">
       <c r="A149" s="32"/>
-      <c r="B149" s="31"/>
+      <c r="B149" s="28"/>
       <c r="C149" s="8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D149" s="2"/>
-      <c r="E149" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="E149" s="2"/>
       <c r="F149" s="2"/>
-      <c r="G149" s="2"/>
+      <c r="G149" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="H149" s="14"/>
       <c r="I149" s="14"/>
     </row>
     <row r="150" spans="1:9" ht="15.75">
       <c r="A150" s="32"/>
-      <c r="B150" s="31"/>
+      <c r="B150" s="28"/>
       <c r="C150" s="8" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D150" s="2"/>
       <c r="E150" s="2"/>
-      <c r="F150" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G150" s="2"/>
+      <c r="F150" s="2"/>
+      <c r="G150" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="H150" s="14"/>
       <c r="I150" s="14"/>
     </row>
     <row r="151" spans="1:9" ht="15.75">
       <c r="A151" s="32"/>
-      <c r="B151" s="31"/>
+      <c r="B151" s="28"/>
       <c r="C151" s="8" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D151" s="2"/>
       <c r="E151" s="2"/>
-      <c r="F151" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G151" s="2"/>
+      <c r="F151" s="2"/>
+      <c r="G151" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="H151" s="14"/>
       <c r="I151" s="14"/>
     </row>
     <row r="152" spans="1:9" ht="15.75">
       <c r="A152" s="32"/>
-      <c r="B152" s="31"/>
+      <c r="B152" s="28"/>
       <c r="C152" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D152" s="2"/>
-      <c r="E152" s="2"/>
-      <c r="F152" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="E152" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F152" s="2"/>
       <c r="G152" s="2"/>
       <c r="H152" s="14"/>
       <c r="I152" s="14"/>
     </row>
     <row r="153" spans="1:9" ht="15.75">
       <c r="A153" s="32"/>
-      <c r="B153" s="31"/>
+      <c r="B153" s="28"/>
       <c r="C153" s="8" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="D153" s="2"/>
-      <c r="E153" s="2"/>
-      <c r="F153" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="E153" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F153" s="2"/>
       <c r="G153" s="2"/>
       <c r="H153" s="14"/>
       <c r="I153" s="14"/>
     </row>
     <row r="154" spans="1:9" ht="15.75">
       <c r="A154" s="32"/>
-      <c r="B154" s="31"/>
+      <c r="B154" s="28"/>
       <c r="C154" s="8" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D154" s="2"/>
       <c r="E154" s="2" t="s">
@@ -3498,70 +3509,74 @@
     </row>
     <row r="155" spans="1:9" ht="15.75">
       <c r="A155" s="32"/>
-      <c r="B155" s="31"/>
+      <c r="B155" s="28"/>
       <c r="C155" s="8" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D155" s="2"/>
-      <c r="E155" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F155" s="2"/>
+      <c r="E155" s="2"/>
+      <c r="F155" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="G155" s="2"/>
       <c r="H155" s="14"/>
       <c r="I155" s="14"/>
     </row>
     <row r="156" spans="1:9" ht="15.75">
       <c r="A156" s="32"/>
-      <c r="B156" s="31"/>
-      <c r="C156" s="7" t="s">
-        <v>82</v>
+      <c r="B156" s="28"/>
+      <c r="C156" s="8" t="s">
+        <v>75</v>
       </c>
       <c r="D156" s="2"/>
       <c r="E156" s="2"/>
-      <c r="F156" s="2"/>
+      <c r="F156" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="G156" s="2"/>
       <c r="H156" s="14"/>
       <c r="I156" s="14"/>
     </row>
     <row r="157" spans="1:9" ht="15.75">
       <c r="A157" s="32"/>
-      <c r="B157" s="31"/>
+      <c r="B157" s="28"/>
       <c r="C157" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="D157" s="2" t="s">
-        <v>8</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="D157" s="2"/>
       <c r="E157" s="2"/>
-      <c r="F157" s="2"/>
+      <c r="F157" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="G157" s="2"/>
       <c r="H157" s="14"/>
       <c r="I157" s="14"/>
     </row>
     <row r="158" spans="1:9" ht="15.75">
       <c r="A158" s="32"/>
-      <c r="B158" s="31"/>
+      <c r="B158" s="28"/>
       <c r="C158" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="D158" s="2" t="s">
-        <v>8</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="D158" s="2"/>
       <c r="E158" s="2"/>
-      <c r="F158" s="2"/>
+      <c r="F158" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="G158" s="2"/>
       <c r="H158" s="14"/>
       <c r="I158" s="14"/>
     </row>
     <row r="159" spans="1:9" ht="15.75">
       <c r="A159" s="32"/>
-      <c r="B159" s="31"/>
-      <c r="C159" s="25" t="s">
-        <v>26</v>
+      <c r="B159" s="28"/>
+      <c r="C159" s="8" t="s">
+        <v>80</v>
       </c>
       <c r="D159" s="2"/>
-      <c r="E159" s="2"/>
+      <c r="E159" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="F159" s="2"/>
       <c r="G159" s="2"/>
       <c r="H159" s="14"/>
@@ -3569,12 +3584,14 @@
     </row>
     <row r="160" spans="1:9" ht="15.75">
       <c r="A160" s="32"/>
-      <c r="B160" s="31"/>
-      <c r="C160" s="7" t="s">
-        <v>52</v>
+      <c r="B160" s="28"/>
+      <c r="C160" s="8" t="s">
+        <v>79</v>
       </c>
       <c r="D160" s="2"/>
-      <c r="E160" s="2"/>
+      <c r="E160" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="F160" s="2"/>
       <c r="G160" s="2"/>
       <c r="H160" s="14"/>
@@ -3582,69 +3599,65 @@
     </row>
     <row r="161" spans="1:9" ht="15.75">
       <c r="A161" s="32"/>
-      <c r="B161" s="31"/>
-      <c r="C161" s="8" t="s">
-        <v>53</v>
+      <c r="B161" s="28"/>
+      <c r="C161" s="7" t="s">
+        <v>82</v>
       </c>
       <c r="D161" s="2"/>
       <c r="E161" s="2"/>
       <c r="F161" s="2"/>
-      <c r="G161" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="G161" s="2"/>
       <c r="H161" s="14"/>
       <c r="I161" s="14"/>
     </row>
     <row r="162" spans="1:9" ht="15.75">
       <c r="A162" s="32"/>
-      <c r="B162" s="31"/>
+      <c r="B162" s="28"/>
       <c r="C162" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="D162" s="2"/>
+        <v>83</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="E162" s="2"/>
       <c r="F162" s="2"/>
-      <c r="G162" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="G162" s="2"/>
       <c r="H162" s="14"/>
       <c r="I162" s="14"/>
     </row>
     <row r="163" spans="1:9" ht="15.75">
       <c r="A163" s="32"/>
-      <c r="B163" s="31"/>
+      <c r="B163" s="28"/>
       <c r="C163" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="D163" s="2"/>
+        <v>84</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="E163" s="2"/>
       <c r="F163" s="2"/>
-      <c r="G163" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="G163" s="2"/>
       <c r="H163" s="14"/>
       <c r="I163" s="14"/>
     </row>
     <row r="164" spans="1:9" ht="15.75">
       <c r="A164" s="32"/>
-      <c r="B164" s="31"/>
-      <c r="C164" s="8" t="s">
-        <v>59</v>
+      <c r="B164" s="28"/>
+      <c r="C164" s="25" t="s">
+        <v>26</v>
       </c>
       <c r="D164" s="2"/>
       <c r="E164" s="2"/>
-      <c r="F164" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="F164" s="2"/>
       <c r="G164" s="2"/>
       <c r="H164" s="14"/>
       <c r="I164" s="14"/>
     </row>
     <row r="165" spans="1:9" ht="15.75">
       <c r="A165" s="32"/>
-      <c r="B165" s="31"/>
+      <c r="B165" s="28"/>
       <c r="C165" s="7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D165" s="2"/>
       <c r="E165" s="2"/>
@@ -3655,9 +3668,9 @@
     </row>
     <row r="166" spans="1:9" ht="15.75">
       <c r="A166" s="32"/>
-      <c r="B166" s="31"/>
+      <c r="B166" s="28"/>
       <c r="C166" s="8" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D166" s="2"/>
       <c r="E166" s="2"/>
@@ -3670,9 +3683,9 @@
     </row>
     <row r="167" spans="1:9" ht="15.75">
       <c r="A167" s="32"/>
-      <c r="B167" s="31"/>
+      <c r="B167" s="28"/>
       <c r="C167" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D167" s="2"/>
       <c r="E167" s="2"/>
@@ -3685,9 +3698,9 @@
     </row>
     <row r="168" spans="1:9" ht="15.75">
       <c r="A168" s="32"/>
-      <c r="B168" s="31"/>
+      <c r="B168" s="28"/>
       <c r="C168" s="8" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D168" s="2"/>
       <c r="E168" s="2"/>
@@ -3700,97 +3713,97 @@
     </row>
     <row r="169" spans="1:9" ht="15.75">
       <c r="A169" s="32"/>
-      <c r="B169" s="31"/>
+      <c r="B169" s="28"/>
       <c r="C169" s="8" t="s">
-        <v>61</v>
+        <v>89</v>
       </c>
       <c r="D169" s="2"/>
       <c r="E169" s="2"/>
-      <c r="F169" s="2"/>
-      <c r="G169" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="F169" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G169" s="2"/>
       <c r="H169" s="14"/>
       <c r="I169" s="14"/>
     </row>
     <row r="170" spans="1:9" ht="15.75">
       <c r="A170" s="32"/>
-      <c r="B170" s="31"/>
-      <c r="C170" s="7" t="s">
-        <v>62</v>
+      <c r="B170" s="28"/>
+      <c r="C170" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="D170" s="2"/>
       <c r="E170" s="2"/>
-      <c r="F170" s="2"/>
+      <c r="F170" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="G170" s="2"/>
       <c r="H170" s="14"/>
       <c r="I170" s="14"/>
     </row>
     <row r="171" spans="1:9" ht="15.75">
       <c r="A171" s="32"/>
-      <c r="B171" s="31"/>
-      <c r="C171" s="8" t="s">
-        <v>63</v>
+      <c r="B171" s="28"/>
+      <c r="C171" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="D171" s="2"/>
       <c r="E171" s="2"/>
-      <c r="F171" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="F171" s="2"/>
       <c r="G171" s="2"/>
       <c r="H171" s="14"/>
       <c r="I171" s="14"/>
     </row>
     <row r="172" spans="1:9" ht="15.75">
       <c r="A172" s="32"/>
-      <c r="B172" s="31"/>
+      <c r="B172" s="28"/>
       <c r="C172" s="8" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="D172" s="2"/>
       <c r="E172" s="2"/>
-      <c r="F172" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G172" s="2"/>
+      <c r="F172" s="2"/>
+      <c r="G172" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="H172" s="14"/>
       <c r="I172" s="14"/>
     </row>
     <row r="173" spans="1:9" ht="15.75">
       <c r="A173" s="32"/>
-      <c r="B173" s="31"/>
+      <c r="B173" s="28"/>
       <c r="C173" s="8" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="D173" s="2"/>
       <c r="E173" s="2"/>
-      <c r="F173" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G173" s="2"/>
+      <c r="F173" s="2"/>
+      <c r="G173" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="H173" s="14"/>
       <c r="I173" s="14"/>
     </row>
     <row r="174" spans="1:9" ht="15.75">
       <c r="A174" s="32"/>
-      <c r="B174" s="31"/>
+      <c r="B174" s="28"/>
       <c r="C174" s="8" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D174" s="2"/>
       <c r="E174" s="2"/>
-      <c r="F174" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G174" s="2"/>
+      <c r="F174" s="2"/>
+      <c r="G174" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="H174" s="14"/>
       <c r="I174" s="14"/>
     </row>
     <row r="175" spans="1:9" ht="15.75">
       <c r="A175" s="32"/>
-      <c r="B175" s="31"/>
+      <c r="B175" s="28"/>
       <c r="C175" s="8" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D175" s="2"/>
       <c r="E175" s="2"/>
@@ -3803,174 +3816,172 @@
     </row>
     <row r="176" spans="1:9" ht="15.75">
       <c r="A176" s="32"/>
-      <c r="B176" s="31"/>
-      <c r="C176" s="8" t="s">
-        <v>68</v>
+      <c r="B176" s="28"/>
+      <c r="C176" s="7" t="s">
+        <v>62</v>
       </c>
       <c r="D176" s="2"/>
       <c r="E176" s="2"/>
-      <c r="F176" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="F176" s="2"/>
       <c r="G176" s="2"/>
       <c r="H176" s="14"/>
       <c r="I176" s="14"/>
     </row>
     <row r="177" spans="1:9" ht="15.75">
       <c r="A177" s="32"/>
-      <c r="B177" s="31"/>
+      <c r="B177" s="28"/>
       <c r="C177" s="8" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="D177" s="2"/>
       <c r="E177" s="2"/>
-      <c r="F177" s="2"/>
-      <c r="G177" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="F177" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G177" s="2"/>
       <c r="H177" s="14"/>
       <c r="I177" s="14"/>
     </row>
     <row r="178" spans="1:9" ht="15.75">
       <c r="A178" s="32"/>
-      <c r="B178" s="31"/>
+      <c r="B178" s="28"/>
       <c r="C178" s="8" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D178" s="2"/>
       <c r="E178" s="2"/>
-      <c r="F178" s="2"/>
-      <c r="G178" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="F178" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G178" s="2"/>
       <c r="H178" s="14"/>
       <c r="I178" s="14"/>
     </row>
     <row r="179" spans="1:9" ht="15.75">
       <c r="A179" s="32"/>
-      <c r="B179" s="31"/>
+      <c r="B179" s="28"/>
       <c r="C179" s="8" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D179" s="2"/>
       <c r="E179" s="2"/>
-      <c r="F179" s="2"/>
-      <c r="G179" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="F179" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G179" s="2"/>
       <c r="H179" s="14"/>
       <c r="I179" s="14"/>
     </row>
     <row r="180" spans="1:9" ht="15.75">
       <c r="A180" s="32"/>
-      <c r="B180" s="31"/>
+      <c r="B180" s="28"/>
       <c r="C180" s="8" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="D180" s="2"/>
-      <c r="E180" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F180" s="2"/>
+      <c r="E180" s="2"/>
+      <c r="F180" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="G180" s="2"/>
       <c r="H180" s="14"/>
       <c r="I180" s="14"/>
     </row>
     <row r="181" spans="1:9" ht="15.75">
       <c r="A181" s="32"/>
-      <c r="B181" s="31"/>
+      <c r="B181" s="28"/>
       <c r="C181" s="8" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D181" s="2"/>
-      <c r="E181" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="E181" s="2"/>
       <c r="F181" s="2"/>
-      <c r="G181" s="2"/>
+      <c r="G181" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="H181" s="14"/>
       <c r="I181" s="14"/>
     </row>
     <row r="182" spans="1:9" ht="15.75">
       <c r="A182" s="32"/>
-      <c r="B182" s="31"/>
+      <c r="B182" s="28"/>
       <c r="C182" s="8" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D182" s="2"/>
-      <c r="E182" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F182" s="2"/>
+      <c r="E182" s="2"/>
+      <c r="F182" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="G182" s="2"/>
       <c r="H182" s="14"/>
       <c r="I182" s="14"/>
     </row>
     <row r="183" spans="1:9" ht="15.75">
       <c r="A183" s="32"/>
-      <c r="B183" s="31"/>
+      <c r="B183" s="28"/>
       <c r="C183" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D183" s="2"/>
       <c r="E183" s="2"/>
-      <c r="F183" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G183" s="2"/>
+      <c r="F183" s="2"/>
+      <c r="G183" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="H183" s="14"/>
       <c r="I183" s="14"/>
     </row>
     <row r="184" spans="1:9" ht="15.75">
       <c r="A184" s="32"/>
-      <c r="B184" s="31"/>
+      <c r="B184" s="28"/>
       <c r="C184" s="8" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D184" s="2"/>
       <c r="E184" s="2"/>
-      <c r="F184" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G184" s="2"/>
+      <c r="F184" s="2"/>
+      <c r="G184" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="H184" s="14"/>
       <c r="I184" s="14"/>
     </row>
     <row r="185" spans="1:9" ht="15.75">
       <c r="A185" s="32"/>
-      <c r="B185" s="31"/>
+      <c r="B185" s="28"/>
       <c r="C185" s="8" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="D185" s="2"/>
       <c r="E185" s="2"/>
-      <c r="F185" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G185" s="2"/>
+      <c r="F185" s="2"/>
+      <c r="G185" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="H185" s="14"/>
       <c r="I185" s="14"/>
     </row>
     <row r="186" spans="1:9" ht="15.75">
       <c r="A186" s="32"/>
-      <c r="B186" s="31"/>
+      <c r="B186" s="28"/>
       <c r="C186" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D186" s="2"/>
-      <c r="E186" s="2"/>
-      <c r="F186" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="E186" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F186" s="2"/>
       <c r="G186" s="2"/>
       <c r="H186" s="14"/>
       <c r="I186" s="14"/>
     </row>
     <row r="187" spans="1:9" ht="15.75">
       <c r="A187" s="32"/>
-      <c r="B187" s="31"/>
+      <c r="B187" s="28"/>
       <c r="C187" s="8" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="D187" s="2"/>
       <c r="E187" s="2" t="s">
@@ -3983,9 +3994,9 @@
     </row>
     <row r="188" spans="1:9" ht="15.75">
       <c r="A188" s="32"/>
-      <c r="B188" s="31"/>
+      <c r="B188" s="28"/>
       <c r="C188" s="8" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="D188" s="2"/>
       <c r="E188" s="2" t="s">
@@ -3998,56 +4009,54 @@
     </row>
     <row r="189" spans="1:9" ht="15.75">
       <c r="A189" s="32"/>
-      <c r="B189" s="31"/>
-      <c r="C189" s="7" t="s">
-        <v>82</v>
+      <c r="B189" s="28"/>
+      <c r="C189" s="8" t="s">
+        <v>74</v>
       </c>
       <c r="D189" s="2"/>
       <c r="E189" s="2"/>
-      <c r="F189" s="2"/>
+      <c r="F189" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="G189" s="2"/>
       <c r="H189" s="14"/>
       <c r="I189" s="14"/>
     </row>
     <row r="190" spans="1:9" ht="15.75">
       <c r="A190" s="32"/>
-      <c r="B190" s="31"/>
+      <c r="B190" s="28"/>
       <c r="C190" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="D190" s="2" t="s">
-        <v>8</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="D190" s="2"/>
       <c r="E190" s="2"/>
-      <c r="F190" s="2"/>
+      <c r="F190" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="G190" s="2"/>
       <c r="H190" s="14"/>
       <c r="I190" s="14"/>
     </row>
     <row r="191" spans="1:9" ht="15.75">
       <c r="A191" s="32"/>
-      <c r="B191" s="31"/>
+      <c r="B191" s="28"/>
       <c r="C191" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="D191" s="2" t="s">
-        <v>8</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="D191" s="2"/>
       <c r="E191" s="2"/>
-      <c r="F191" s="2"/>
+      <c r="F191" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="G191" s="2"/>
       <c r="H191" s="14"/>
       <c r="I191" s="14"/>
     </row>
     <row r="192" spans="1:9" ht="15.75">
-      <c r="A192" s="27">
-        <v>6</v>
-      </c>
-      <c r="B192" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="C192" s="12" t="s">
-        <v>28</v>
+      <c r="A192" s="32"/>
+      <c r="B192" s="28"/>
+      <c r="C192" s="8" t="s">
+        <v>78</v>
       </c>
       <c r="D192" s="2"/>
       <c r="E192" s="2"/>
@@ -4059,132 +4068,130 @@
       <c r="I192" s="14"/>
     </row>
     <row r="193" spans="1:9" ht="15.75">
-      <c r="A193" s="28"/>
-      <c r="B193" s="30"/>
-      <c r="C193" s="12" t="s">
-        <v>29</v>
+      <c r="A193" s="32"/>
+      <c r="B193" s="28"/>
+      <c r="C193" s="8" t="s">
+        <v>80</v>
       </c>
       <c r="D193" s="2"/>
-      <c r="E193" s="2"/>
+      <c r="E193" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="F193" s="2"/>
-      <c r="G193" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="G193" s="2"/>
       <c r="H193" s="14"/>
       <c r="I193" s="14"/>
     </row>
-    <row r="194" spans="1:9" ht="15">
-      <c r="A194" s="3"/>
-      <c r="B194" s="3"/>
-      <c r="C194" s="1"/>
-      <c r="D194" s="3"/>
-      <c r="E194" s="3"/>
-      <c r="F194" s="3"/>
-      <c r="G194" s="3"/>
-      <c r="I194" s="3"/>
-    </row>
-    <row r="195" spans="1:9" ht="15">
-      <c r="A195" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="B195" s="19"/>
-      <c r="C195" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D195" s="3"/>
-      <c r="E195" s="3"/>
-      <c r="F195" s="3"/>
-      <c r="G195" s="3"/>
-      <c r="I195" s="3"/>
-    </row>
-    <row r="196" spans="1:9" ht="15">
-      <c r="A196" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B196" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="C196" s="4">
-        <v>1</v>
-      </c>
-      <c r="D196" s="3"/>
-      <c r="E196" s="3"/>
-      <c r="F196" s="3"/>
-      <c r="G196" s="3"/>
-      <c r="I196" s="3"/>
-    </row>
-    <row r="197" spans="1:9" ht="45">
-      <c r="A197" s="19">
-        <v>1</v>
-      </c>
-      <c r="B197" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="C197" s="21">
-        <v>2</v>
-      </c>
-      <c r="D197" s="3"/>
-      <c r="E197" s="3"/>
-      <c r="F197" s="3"/>
-      <c r="G197" s="3"/>
-      <c r="I197" s="3"/>
-    </row>
-    <row r="198" spans="1:9" ht="15">
-      <c r="A198" s="21">
-        <v>2</v>
-      </c>
-      <c r="B198" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="C198" s="21">
-        <v>3</v>
-      </c>
-      <c r="D198" s="3"/>
-      <c r="E198" s="3"/>
-      <c r="F198" s="3"/>
-      <c r="G198" s="3"/>
-      <c r="I198" s="3"/>
-    </row>
-    <row r="199" spans="1:9" ht="30">
-      <c r="A199" s="21">
-        <v>3</v>
-      </c>
-      <c r="B199" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="C199" s="21">
-        <v>4</v>
-      </c>
-      <c r="D199" s="3"/>
-      <c r="E199" s="3"/>
-      <c r="F199" s="3"/>
-      <c r="G199" s="3"/>
-      <c r="I199" s="3"/>
+    <row r="194" spans="1:9" ht="15.75">
+      <c r="A194" s="32"/>
+      <c r="B194" s="28"/>
+      <c r="C194" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D194" s="2"/>
+      <c r="E194" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F194" s="2"/>
+      <c r="G194" s="2"/>
+      <c r="H194" s="14"/>
+      <c r="I194" s="14"/>
+    </row>
+    <row r="195" spans="1:9" ht="15.75">
+      <c r="A195" s="32"/>
+      <c r="B195" s="28"/>
+      <c r="C195" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D195" s="2"/>
+      <c r="E195" s="2"/>
+      <c r="F195" s="2"/>
+      <c r="G195" s="2"/>
+      <c r="H195" s="14"/>
+      <c r="I195" s="14"/>
+    </row>
+    <row r="196" spans="1:9" ht="15.75">
+      <c r="A196" s="32"/>
+      <c r="B196" s="28"/>
+      <c r="C196" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D196" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E196" s="2"/>
+      <c r="F196" s="2"/>
+      <c r="G196" s="2"/>
+      <c r="H196" s="14"/>
+      <c r="I196" s="14"/>
+    </row>
+    <row r="197" spans="1:9" ht="15.75">
+      <c r="A197" s="32"/>
+      <c r="B197" s="28"/>
+      <c r="C197" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D197" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E197" s="2"/>
+      <c r="F197" s="2"/>
+      <c r="G197" s="2"/>
+      <c r="H197" s="14"/>
+      <c r="I197" s="14"/>
+    </row>
+    <row r="198" spans="1:9" ht="15.75">
+      <c r="A198" s="29">
+        <v>6</v>
+      </c>
+      <c r="B198" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="C198" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D198" s="2"/>
+      <c r="E198" s="2"/>
+      <c r="F198" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G198" s="2"/>
+      <c r="H198" s="14"/>
+      <c r="I198" s="14"/>
+    </row>
+    <row r="199" spans="1:9" ht="15.75">
+      <c r="A199" s="30"/>
+      <c r="B199" s="27"/>
+      <c r="C199" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D199" s="2"/>
+      <c r="E199" s="2"/>
+      <c r="F199" s="2"/>
+      <c r="G199" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H199" s="14"/>
+      <c r="I199" s="14"/>
     </row>
     <row r="200" spans="1:9" ht="15">
-      <c r="A200" s="21">
-        <v>4</v>
-      </c>
-      <c r="B200" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="C200" s="21">
-        <v>5</v>
-      </c>
+      <c r="A200" s="3"/>
+      <c r="B200" s="3"/>
+      <c r="C200" s="1"/>
       <c r="D200" s="3"/>
       <c r="E200" s="3"/>
       <c r="F200" s="3"/>
       <c r="G200" s="3"/>
       <c r="I200" s="3"/>
     </row>
-    <row r="201" spans="1:9" ht="30">
-      <c r="A201" s="21">
-        <v>5</v>
-      </c>
-      <c r="B201" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="C201" s="21"/>
+    <row r="201" spans="1:9" ht="15">
+      <c r="A201" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="B201" s="19"/>
+      <c r="C201" s="4" t="s">
+        <v>42</v>
+      </c>
       <c r="D201" s="3"/>
       <c r="E201" s="3"/>
       <c r="F201" s="3"/>
@@ -4192,13 +4199,31 @@
       <c r="I201" s="3"/>
     </row>
     <row r="202" spans="1:9" ht="15">
+      <c r="A202" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B202" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C202" s="4">
+        <v>1</v>
+      </c>
       <c r="D202" s="3"/>
       <c r="E202" s="3"/>
       <c r="F202" s="3"/>
       <c r="G202" s="3"/>
       <c r="I202" s="3"/>
     </row>
-    <row r="203" spans="1:9" ht="15">
+    <row r="203" spans="1:9" ht="45">
+      <c r="A203" s="19">
+        <v>1</v>
+      </c>
+      <c r="B203" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C203" s="21">
+        <v>2</v>
+      </c>
       <c r="D203" s="3"/>
       <c r="E203" s="3"/>
       <c r="F203" s="3"/>
@@ -4206,13 +4231,31 @@
       <c r="I203" s="3"/>
     </row>
     <row r="204" spans="1:9" ht="15">
+      <c r="A204" s="21">
+        <v>2</v>
+      </c>
+      <c r="B204" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C204" s="21">
+        <v>3</v>
+      </c>
       <c r="D204" s="3"/>
       <c r="E204" s="3"/>
       <c r="F204" s="3"/>
       <c r="G204" s="3"/>
       <c r="I204" s="3"/>
     </row>
-    <row r="205" spans="1:9" ht="15">
+    <row r="205" spans="1:9" ht="30">
+      <c r="A205" s="21">
+        <v>3</v>
+      </c>
+      <c r="B205" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C205" s="21">
+        <v>4</v>
+      </c>
       <c r="D205" s="3"/>
       <c r="E205" s="3"/>
       <c r="F205" s="3"/>
@@ -4220,13 +4263,29 @@
       <c r="I205" s="3"/>
     </row>
     <row r="206" spans="1:9" ht="15">
+      <c r="A206" s="21">
+        <v>4</v>
+      </c>
+      <c r="B206" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C206" s="21">
+        <v>5</v>
+      </c>
       <c r="D206" s="3"/>
       <c r="E206" s="3"/>
       <c r="F206" s="3"/>
       <c r="G206" s="3"/>
       <c r="I206" s="3"/>
     </row>
-    <row r="207" spans="1:9" ht="15">
+    <row r="207" spans="1:9" ht="30">
+      <c r="A207" s="21">
+        <v>5</v>
+      </c>
+      <c r="B207" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C207" s="21"/>
       <c r="D207" s="3"/>
       <c r="E207" s="3"/>
       <c r="F207" s="3"/>
@@ -4296,23 +4355,65 @@
       <c r="G216" s="3"/>
       <c r="I216" s="3"/>
     </row>
+    <row r="217" spans="4:9" ht="15">
+      <c r="D217" s="3"/>
+      <c r="E217" s="3"/>
+      <c r="F217" s="3"/>
+      <c r="G217" s="3"/>
+      <c r="I217" s="3"/>
+    </row>
+    <row r="218" spans="4:9" ht="15">
+      <c r="D218" s="3"/>
+      <c r="E218" s="3"/>
+      <c r="F218" s="3"/>
+      <c r="G218" s="3"/>
+      <c r="I218" s="3"/>
+    </row>
+    <row r="219" spans="4:9" ht="15">
+      <c r="D219" s="3"/>
+      <c r="E219" s="3"/>
+      <c r="F219" s="3"/>
+      <c r="G219" s="3"/>
+      <c r="I219" s="3"/>
+    </row>
+    <row r="220" spans="4:9" ht="15">
+      <c r="D220" s="3"/>
+      <c r="E220" s="3"/>
+      <c r="F220" s="3"/>
+      <c r="G220" s="3"/>
+      <c r="I220" s="3"/>
+    </row>
+    <row r="221" spans="4:9" ht="15">
+      <c r="D221" s="3"/>
+      <c r="E221" s="3"/>
+      <c r="F221" s="3"/>
+      <c r="G221" s="3"/>
+      <c r="I221" s="3"/>
+    </row>
+    <row r="222" spans="4:9" ht="15">
+      <c r="D222" s="3"/>
+      <c r="E222" s="3"/>
+      <c r="F222" s="3"/>
+      <c r="G222" s="3"/>
+      <c r="I222" s="3"/>
+    </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A198:A199"/>
+    <mergeCell ref="B198:B199"/>
+    <mergeCell ref="B94:B197"/>
+    <mergeCell ref="A94:A197"/>
+    <mergeCell ref="B53:B93"/>
+    <mergeCell ref="A53:A93"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="B6:B9"/>
-    <mergeCell ref="B10:B50"/>
-    <mergeCell ref="A10:A50"/>
+    <mergeCell ref="B10:B52"/>
+    <mergeCell ref="A10:A52"/>
     <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A192:A193"/>
-    <mergeCell ref="B192:B193"/>
-    <mergeCell ref="B91:B191"/>
-    <mergeCell ref="A91:A191"/>
-    <mergeCell ref="B51:B90"/>
-    <mergeCell ref="A51:A90"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:G214">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:G220">
       <formula1>"O, "</formula1>
     </dataValidation>
   </dataValidations>

--- a/CD/TasksheetFinal.xlsx
+++ b/CD/TasksheetFinal.xlsx
@@ -179,9 +179,6 @@
     <t>External Interface Requirements</t>
   </si>
   <si>
-    <t xml:space="preserve">Functional Requirement </t>
-  </si>
-  <si>
     <t>Non-functional Requirement</t>
   </si>
   <si>
@@ -399,6 +396,9 @@
   </si>
   <si>
     <t>Ranks Management</t>
+  </si>
+  <si>
+    <t>Functional Requirement (Usecase &amp; Specification)</t>
   </si>
 </sst>
 </file>
@@ -960,8 +960,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I222"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A191" workbookViewId="0">
-      <selection activeCell="F176" sqref="F176"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -986,22 +986,22 @@
         <v>2</v>
       </c>
       <c r="D1" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="F1" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="G1" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="G1" s="18" t="s">
-        <v>51</v>
-      </c>
       <c r="H1" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I1" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75">
@@ -1027,7 +1027,7 @@
       <c r="A3" s="28"/>
       <c r="B3" s="28"/>
       <c r="C3" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -1042,7 +1042,7 @@
       <c r="A4" s="28"/>
       <c r="B4" s="28"/>
       <c r="C4" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>8</v>
@@ -1057,7 +1057,7 @@
       <c r="A5" s="28"/>
       <c r="B5" s="28"/>
       <c r="C5" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -1076,7 +1076,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2" t="s">
@@ -1183,7 +1183,7 @@
       <c r="A13" s="28"/>
       <c r="B13" s="28"/>
       <c r="C13" s="7" t="s">
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -1196,7 +1196,7 @@
       <c r="A14" s="28"/>
       <c r="B14" s="28"/>
       <c r="C14" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -1209,7 +1209,7 @@
       <c r="A15" s="28"/>
       <c r="B15" s="28"/>
       <c r="C15" s="23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
@@ -1224,7 +1224,7 @@
       <c r="A16" s="28"/>
       <c r="B16" s="28"/>
       <c r="C16" s="23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>8</v>
@@ -1239,7 +1239,7 @@
       <c r="A17" s="28"/>
       <c r="B17" s="28"/>
       <c r="C17" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
@@ -1254,7 +1254,7 @@
       <c r="A18" s="28"/>
       <c r="B18" s="28"/>
       <c r="C18" s="23" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
@@ -1269,7 +1269,7 @@
       <c r="A19" s="28"/>
       <c r="B19" s="28"/>
       <c r="C19" s="23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
@@ -1284,7 +1284,7 @@
       <c r="A20" s="28"/>
       <c r="B20" s="28"/>
       <c r="C20" s="22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
@@ -1297,7 +1297,7 @@
       <c r="A21" s="28"/>
       <c r="B21" s="28"/>
       <c r="C21" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>8</v>
@@ -1312,7 +1312,7 @@
       <c r="A22" s="28"/>
       <c r="B22" s="28"/>
       <c r="C22" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>8</v>
@@ -1327,7 +1327,7 @@
       <c r="A23" s="28"/>
       <c r="B23" s="28"/>
       <c r="C23" s="23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
@@ -1342,7 +1342,7 @@
       <c r="A24" s="28"/>
       <c r="B24" s="28"/>
       <c r="C24" s="23" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
@@ -1357,7 +1357,7 @@
       <c r="A25" s="28"/>
       <c r="B25" s="28"/>
       <c r="C25" s="23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
@@ -1372,7 +1372,7 @@
       <c r="A26" s="28"/>
       <c r="B26" s="28"/>
       <c r="C26" s="22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
@@ -1385,7 +1385,7 @@
       <c r="A27" s="28"/>
       <c r="B27" s="28"/>
       <c r="C27" s="23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
@@ -1400,7 +1400,7 @@
       <c r="A28" s="28"/>
       <c r="B28" s="28"/>
       <c r="C28" s="23" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
@@ -1415,7 +1415,7 @@
       <c r="A29" s="28"/>
       <c r="B29" s="28"/>
       <c r="C29" s="23" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
@@ -1430,7 +1430,7 @@
       <c r="A30" s="28"/>
       <c r="B30" s="28"/>
       <c r="C30" s="23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
@@ -1445,7 +1445,7 @@
       <c r="A31" s="28"/>
       <c r="B31" s="28"/>
       <c r="C31" s="23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
@@ -1460,7 +1460,7 @@
       <c r="A32" s="28"/>
       <c r="B32" s="28"/>
       <c r="C32" s="23" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
@@ -1475,7 +1475,7 @@
       <c r="A33" s="28"/>
       <c r="B33" s="28"/>
       <c r="C33" s="23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>8</v>
@@ -1490,7 +1490,7 @@
       <c r="A34" s="28"/>
       <c r="B34" s="28"/>
       <c r="C34" s="23" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
@@ -1505,7 +1505,7 @@
       <c r="A35" s="28"/>
       <c r="B35" s="28"/>
       <c r="C35" s="23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>8</v>
@@ -1520,7 +1520,7 @@
       <c r="A36" s="28"/>
       <c r="B36" s="28"/>
       <c r="C36" s="23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
@@ -1535,7 +1535,7 @@
       <c r="A37" s="28"/>
       <c r="B37" s="28"/>
       <c r="C37" s="23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
@@ -1550,7 +1550,7 @@
       <c r="A38" s="28"/>
       <c r="B38" s="28"/>
       <c r="C38" s="23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
@@ -1565,7 +1565,7 @@
       <c r="A39" s="28"/>
       <c r="B39" s="28"/>
       <c r="C39" s="23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>8</v>
@@ -1580,7 +1580,7 @@
       <c r="A40" s="28"/>
       <c r="B40" s="28"/>
       <c r="C40" s="23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>8</v>
@@ -1595,7 +1595,7 @@
       <c r="A41" s="28"/>
       <c r="B41" s="28"/>
       <c r="C41" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
@@ -1610,7 +1610,7 @@
       <c r="A42" s="28"/>
       <c r="B42" s="28"/>
       <c r="C42" s="23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
@@ -1625,7 +1625,7 @@
       <c r="A43" s="28"/>
       <c r="B43" s="28"/>
       <c r="C43" s="23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>8</v>
@@ -1640,7 +1640,7 @@
       <c r="A44" s="28"/>
       <c r="B44" s="28"/>
       <c r="C44" s="23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>8</v>
@@ -1655,7 +1655,7 @@
       <c r="A45" s="28"/>
       <c r="B45" s="28"/>
       <c r="C45" s="22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
@@ -1668,7 +1668,7 @@
       <c r="A46" s="28"/>
       <c r="B46" s="28"/>
       <c r="C46" s="23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" s="2" t="s">
@@ -1683,7 +1683,7 @@
       <c r="A47" s="28"/>
       <c r="B47" s="28"/>
       <c r="C47" s="23" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" s="2" t="s">
@@ -1698,7 +1698,7 @@
       <c r="A48" s="28"/>
       <c r="B48" s="28"/>
       <c r="C48" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
@@ -1711,7 +1711,7 @@
       <c r="A49" s="28"/>
       <c r="B49" s="28"/>
       <c r="C49" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
@@ -1726,7 +1726,7 @@
       <c r="A50" s="28"/>
       <c r="B50" s="28"/>
       <c r="C50" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
@@ -1741,7 +1741,7 @@
       <c r="A51" s="28"/>
       <c r="B51" s="28"/>
       <c r="C51" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
@@ -1756,7 +1756,7 @@
       <c r="A52" s="28"/>
       <c r="B52" s="28"/>
       <c r="C52" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>8</v>
@@ -1775,7 +1775,7 @@
         <v>6</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>8</v>
@@ -1790,7 +1790,7 @@
       <c r="A54" s="33"/>
       <c r="B54" s="33"/>
       <c r="C54" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" s="2" t="s">
@@ -1805,7 +1805,7 @@
       <c r="A55" s="33"/>
       <c r="B55" s="33"/>
       <c r="C55" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
@@ -1818,7 +1818,7 @@
       <c r="A56" s="33"/>
       <c r="B56" s="33"/>
       <c r="C56" s="24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>8</v>
@@ -1833,7 +1833,7 @@
       <c r="A57" s="33"/>
       <c r="B57" s="33"/>
       <c r="C57" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>8</v>
@@ -1848,7 +1848,7 @@
       <c r="A58" s="33"/>
       <c r="B58" s="33"/>
       <c r="C58" s="25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
@@ -1861,7 +1861,7 @@
       <c r="A59" s="33"/>
       <c r="B59" s="33"/>
       <c r="C59" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
@@ -1874,7 +1874,7 @@
       <c r="A60" s="33"/>
       <c r="B60" s="33"/>
       <c r="C60" s="23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" s="2" t="s">
@@ -1883,7 +1883,7 @@
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
       <c r="H60" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I60" s="14">
         <v>1</v>
@@ -1893,7 +1893,7 @@
       <c r="A61" s="33"/>
       <c r="B61" s="33"/>
       <c r="C61" s="23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>8</v>
@@ -1902,7 +1902,7 @@
       <c r="F61" s="2"/>
       <c r="G61" s="2"/>
       <c r="H61" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I61" s="14">
         <v>5</v>
@@ -1912,7 +1912,7 @@
       <c r="A62" s="33"/>
       <c r="B62" s="33"/>
       <c r="C62" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
@@ -1921,7 +1921,7 @@
       </c>
       <c r="G62" s="2"/>
       <c r="H62" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I62" s="14">
         <v>4</v>
@@ -1931,7 +1931,7 @@
       <c r="A63" s="33"/>
       <c r="B63" s="33"/>
       <c r="C63" s="23" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
@@ -1940,7 +1940,7 @@
         <v>8</v>
       </c>
       <c r="H63" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I63" s="14">
         <v>4</v>
@@ -1950,7 +1950,7 @@
       <c r="A64" s="33"/>
       <c r="B64" s="33"/>
       <c r="C64" s="23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
@@ -1959,7 +1959,7 @@
         <v>8</v>
       </c>
       <c r="H64" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I64" s="14">
         <v>3</v>
@@ -1969,7 +1969,7 @@
       <c r="A65" s="33"/>
       <c r="B65" s="33"/>
       <c r="C65" s="22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
@@ -1982,7 +1982,7 @@
       <c r="A66" s="33"/>
       <c r="B66" s="33"/>
       <c r="C66" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>8</v>
@@ -1991,7 +1991,7 @@
       <c r="F66" s="2"/>
       <c r="G66" s="2"/>
       <c r="H66" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I66" s="14">
         <v>1</v>
@@ -2001,7 +2001,7 @@
       <c r="A67" s="33"/>
       <c r="B67" s="33"/>
       <c r="C67" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>8</v>
@@ -2010,7 +2010,7 @@
       <c r="F67" s="2"/>
       <c r="G67" s="2"/>
       <c r="H67" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I67" s="14">
         <v>6</v>
@@ -2020,7 +2020,7 @@
       <c r="A68" s="33"/>
       <c r="B68" s="33"/>
       <c r="C68" s="23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
@@ -2029,7 +2029,7 @@
       </c>
       <c r="G68" s="2"/>
       <c r="H68" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I68" s="14">
         <v>5</v>
@@ -2039,7 +2039,7 @@
       <c r="A69" s="33"/>
       <c r="B69" s="33"/>
       <c r="C69" s="23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
@@ -2048,7 +2048,7 @@
       </c>
       <c r="G69" s="2"/>
       <c r="H69" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I69" s="14">
         <v>3</v>
@@ -2058,7 +2058,7 @@
       <c r="A70" s="33"/>
       <c r="B70" s="33"/>
       <c r="C70" s="22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
@@ -2071,7 +2071,7 @@
       <c r="A71" s="33"/>
       <c r="B71" s="33"/>
       <c r="C71" s="23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
@@ -2080,7 +2080,7 @@
         <v>8</v>
       </c>
       <c r="H71" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I71" s="14">
         <v>1</v>
@@ -2090,7 +2090,7 @@
       <c r="A72" s="33"/>
       <c r="B72" s="33"/>
       <c r="C72" s="23" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
@@ -2099,7 +2099,7 @@
         <v>8</v>
       </c>
       <c r="H72" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I72" s="14">
         <v>1</v>
@@ -2109,7 +2109,7 @@
       <c r="A73" s="33"/>
       <c r="B73" s="33"/>
       <c r="C73" s="23" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" s="2"/>
@@ -2118,7 +2118,7 @@
         <v>8</v>
       </c>
       <c r="H73" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I73" s="14">
         <v>1</v>
@@ -2128,7 +2128,7 @@
       <c r="A74" s="33"/>
       <c r="B74" s="33"/>
       <c r="C74" s="23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" s="2"/>
@@ -2137,7 +2137,7 @@
         <v>8</v>
       </c>
       <c r="H74" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I74" s="14">
         <v>1</v>
@@ -2147,7 +2147,7 @@
       <c r="A75" s="33"/>
       <c r="B75" s="33"/>
       <c r="C75" s="23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" s="2"/>
@@ -2156,7 +2156,7 @@
       </c>
       <c r="G75" s="2"/>
       <c r="H75" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I75" s="14">
         <v>1</v>
@@ -2166,7 +2166,7 @@
       <c r="A76" s="33"/>
       <c r="B76" s="33"/>
       <c r="C76" s="23" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
@@ -2175,7 +2175,7 @@
         <v>8</v>
       </c>
       <c r="H76" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I76" s="14">
         <v>1</v>
@@ -2185,7 +2185,7 @@
       <c r="A77" s="33"/>
       <c r="B77" s="33"/>
       <c r="C77" s="23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>8</v>
@@ -2194,7 +2194,7 @@
       <c r="F77" s="2"/>
       <c r="G77" s="2"/>
       <c r="H77" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I77" s="14">
         <v>1</v>
@@ -2204,7 +2204,7 @@
       <c r="A78" s="33"/>
       <c r="B78" s="33"/>
       <c r="C78" s="23" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" s="2"/>
@@ -2213,7 +2213,7 @@
       </c>
       <c r="G78" s="2"/>
       <c r="H78" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I78" s="14">
         <v>1</v>
@@ -2223,7 +2223,7 @@
       <c r="A79" s="33"/>
       <c r="B79" s="33"/>
       <c r="C79" s="23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>8</v>
@@ -2232,7 +2232,7 @@
       <c r="F79" s="2"/>
       <c r="G79" s="2"/>
       <c r="H79" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I79" s="14">
         <v>1</v>
@@ -2242,7 +2242,7 @@
       <c r="A80" s="33"/>
       <c r="B80" s="33"/>
       <c r="C80" s="23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" s="2"/>
@@ -2251,7 +2251,7 @@
       </c>
       <c r="G80" s="2"/>
       <c r="H80" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I80" s="14">
         <v>1</v>
@@ -2261,7 +2261,7 @@
       <c r="A81" s="33"/>
       <c r="B81" s="33"/>
       <c r="C81" s="23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" s="2"/>
@@ -2270,7 +2270,7 @@
       </c>
       <c r="G81" s="2"/>
       <c r="H81" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I81" s="14">
         <v>1</v>
@@ -2280,7 +2280,7 @@
       <c r="A82" s="33"/>
       <c r="B82" s="33"/>
       <c r="C82" s="23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" s="2"/>
@@ -2289,7 +2289,7 @@
       </c>
       <c r="G82" s="2"/>
       <c r="H82" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I82" s="14">
         <v>1</v>
@@ -2299,7 +2299,7 @@
       <c r="A83" s="33"/>
       <c r="B83" s="33"/>
       <c r="C83" s="23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>8</v>
@@ -2308,7 +2308,7 @@
       <c r="F83" s="2"/>
       <c r="G83" s="2"/>
       <c r="H83" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I83" s="14">
         <v>1</v>
@@ -2318,7 +2318,7 @@
       <c r="A84" s="33"/>
       <c r="B84" s="33"/>
       <c r="C84" s="23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>8</v>
@@ -2327,7 +2327,7 @@
       <c r="F84" s="2"/>
       <c r="G84" s="2"/>
       <c r="H84" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I84" s="14">
         <v>1</v>
@@ -2337,7 +2337,7 @@
       <c r="A85" s="33"/>
       <c r="B85" s="33"/>
       <c r="C85" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" s="2"/>
@@ -2346,7 +2346,7 @@
         <v>8</v>
       </c>
       <c r="H85" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I85" s="14">
         <v>1</v>
@@ -2356,7 +2356,7 @@
       <c r="A86" s="33"/>
       <c r="B86" s="33"/>
       <c r="C86" s="23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" s="2"/>
@@ -2365,7 +2365,7 @@
         <v>8</v>
       </c>
       <c r="H86" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I86" s="14">
         <v>1</v>
@@ -2375,7 +2375,7 @@
       <c r="A87" s="33"/>
       <c r="B87" s="33"/>
       <c r="C87" s="23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>8</v>
@@ -2384,7 +2384,7 @@
       <c r="F87" s="2"/>
       <c r="G87" s="2"/>
       <c r="H87" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I87" s="14">
         <v>1</v>
@@ -2394,7 +2394,7 @@
       <c r="A88" s="33"/>
       <c r="B88" s="33"/>
       <c r="C88" s="23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>8</v>
@@ -2403,7 +2403,7 @@
       <c r="F88" s="2"/>
       <c r="G88" s="2"/>
       <c r="H88" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I88" s="14">
         <v>1</v>
@@ -2413,7 +2413,7 @@
       <c r="A89" s="33"/>
       <c r="B89" s="33"/>
       <c r="C89" s="22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" s="2"/>
@@ -2426,7 +2426,7 @@
       <c r="A90" s="33"/>
       <c r="B90" s="33"/>
       <c r="C90" s="23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" s="2" t="s">
@@ -2435,7 +2435,7 @@
       <c r="F90" s="2"/>
       <c r="G90" s="2"/>
       <c r="H90" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I90" s="14">
         <v>1</v>
@@ -2445,7 +2445,7 @@
       <c r="A91" s="33"/>
       <c r="B91" s="33"/>
       <c r="C91" s="23" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" s="2" t="s">
@@ -2454,7 +2454,7 @@
       <c r="F91" s="2"/>
       <c r="G91" s="2"/>
       <c r="H91" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I91" s="14">
         <v>1</v>
@@ -2464,7 +2464,7 @@
       <c r="A92" s="33"/>
       <c r="B92" s="33"/>
       <c r="C92" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" s="2" t="s">
@@ -2479,7 +2479,7 @@
       <c r="A93" s="27"/>
       <c r="B93" s="27"/>
       <c r="C93" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" s="2"/>
@@ -2495,10 +2495,10 @@
         <v>5</v>
       </c>
       <c r="B94" s="28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" s="2"/>
@@ -2513,7 +2513,7 @@
       <c r="A95" s="32"/>
       <c r="B95" s="28"/>
       <c r="C95" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D95" s="2"/>
       <c r="E95" s="2"/>
@@ -2526,7 +2526,7 @@
       <c r="A96" s="32"/>
       <c r="B96" s="28"/>
       <c r="C96" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D96" s="2"/>
       <c r="E96" s="2"/>
@@ -2539,7 +2539,7 @@
       <c r="A97" s="32"/>
       <c r="B97" s="28"/>
       <c r="C97" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D97" s="2"/>
       <c r="E97" s="2" t="s">
@@ -2548,7 +2548,7 @@
       <c r="F97" s="2"/>
       <c r="G97" s="2"/>
       <c r="H97" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I97" s="14">
         <v>1</v>
@@ -2558,7 +2558,7 @@
       <c r="A98" s="32"/>
       <c r="B98" s="28"/>
       <c r="C98" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>8</v>
@@ -2567,7 +2567,7 @@
       <c r="F98" s="2"/>
       <c r="G98" s="2"/>
       <c r="H98" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I98" s="14">
         <v>2</v>
@@ -2577,7 +2577,7 @@
       <c r="A99" s="32"/>
       <c r="B99" s="28"/>
       <c r="C99" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D99" s="2"/>
       <c r="E99" s="2"/>
@@ -2586,7 +2586,7 @@
       </c>
       <c r="G99" s="2"/>
       <c r="H99" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I99" s="14">
         <v>1</v>
@@ -2596,7 +2596,7 @@
       <c r="A100" s="32"/>
       <c r="B100" s="28"/>
       <c r="C100" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D100" s="2"/>
       <c r="E100" s="2"/>
@@ -2605,7 +2605,7 @@
         <v>8</v>
       </c>
       <c r="H100" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I100" s="14">
         <v>2</v>
@@ -2615,7 +2615,7 @@
       <c r="A101" s="32"/>
       <c r="B101" s="28"/>
       <c r="C101" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D101" s="2"/>
       <c r="E101" s="2"/>
@@ -2624,7 +2624,7 @@
         <v>8</v>
       </c>
       <c r="H101" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I101" s="14">
         <v>2</v>
@@ -2634,7 +2634,7 @@
       <c r="A102" s="32"/>
       <c r="B102" s="28"/>
       <c r="C102" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D102" s="2"/>
       <c r="E102" s="2"/>
@@ -2647,7 +2647,7 @@
       <c r="A103" s="32"/>
       <c r="B103" s="28"/>
       <c r="C103" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D103" s="2" t="s">
         <v>8</v>
@@ -2656,7 +2656,7 @@
       <c r="F103" s="2"/>
       <c r="G103" s="2"/>
       <c r="H103" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I103" s="14">
         <v>2</v>
@@ -2666,7 +2666,7 @@
       <c r="A104" s="32"/>
       <c r="B104" s="28"/>
       <c r="C104" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D104" s="2" t="s">
         <v>8</v>
@@ -2675,7 +2675,7 @@
       <c r="F104" s="2"/>
       <c r="G104" s="2"/>
       <c r="H104" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I104" s="14">
         <v>3</v>
@@ -2685,7 +2685,7 @@
       <c r="A105" s="32"/>
       <c r="B105" s="28"/>
       <c r="C105" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D105" s="2"/>
       <c r="E105" s="2"/>
@@ -2694,7 +2694,7 @@
       </c>
       <c r="G105" s="2"/>
       <c r="H105" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I105" s="14">
         <v>3</v>
@@ -2704,7 +2704,7 @@
       <c r="A106" s="32"/>
       <c r="B106" s="28"/>
       <c r="C106" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D106" s="2"/>
       <c r="E106" s="2"/>
@@ -2713,7 +2713,7 @@
       </c>
       <c r="G106" s="2"/>
       <c r="H106" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I106" s="14">
         <v>2</v>
@@ -2723,7 +2723,7 @@
       <c r="A107" s="32"/>
       <c r="B107" s="28"/>
       <c r="C107" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D107" s="2"/>
       <c r="E107" s="2"/>
@@ -2736,7 +2736,7 @@
       <c r="A108" s="32"/>
       <c r="B108" s="28"/>
       <c r="C108" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D108" s="2"/>
       <c r="E108" s="2"/>
@@ -2745,7 +2745,7 @@
         <v>8</v>
       </c>
       <c r="H108" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I108" s="14">
         <v>1</v>
@@ -2755,7 +2755,7 @@
       <c r="A109" s="32"/>
       <c r="B109" s="28"/>
       <c r="C109" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D109" s="2"/>
       <c r="E109" s="2"/>
@@ -2764,7 +2764,7 @@
         <v>8</v>
       </c>
       <c r="H109" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I109" s="14">
         <v>1</v>
@@ -2774,7 +2774,7 @@
       <c r="A110" s="32"/>
       <c r="B110" s="28"/>
       <c r="C110" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D110" s="2"/>
       <c r="E110" s="2"/>
@@ -2783,7 +2783,7 @@
         <v>8</v>
       </c>
       <c r="H110" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I110" s="14">
         <v>1</v>
@@ -2793,7 +2793,7 @@
       <c r="A111" s="32"/>
       <c r="B111" s="28"/>
       <c r="C111" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D111" s="2"/>
       <c r="E111" s="2"/>
@@ -2802,7 +2802,7 @@
         <v>8</v>
       </c>
       <c r="H111" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I111" s="14">
         <v>1</v>
@@ -2812,7 +2812,7 @@
       <c r="A112" s="32"/>
       <c r="B112" s="28"/>
       <c r="C112" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D112" s="2"/>
       <c r="E112" s="2"/>
@@ -2821,7 +2821,7 @@
       </c>
       <c r="G112" s="2"/>
       <c r="H112" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I112" s="14">
         <v>1</v>
@@ -2831,7 +2831,7 @@
       <c r="A113" s="32"/>
       <c r="B113" s="28"/>
       <c r="C113" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D113" s="2"/>
       <c r="E113" s="2"/>
@@ -2840,7 +2840,7 @@
         <v>8</v>
       </c>
       <c r="H113" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I113" s="14">
         <v>1</v>
@@ -2850,7 +2850,7 @@
       <c r="A114" s="32"/>
       <c r="B114" s="28"/>
       <c r="C114" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D114" s="2" t="s">
         <v>8</v>
@@ -2859,7 +2859,7 @@
       <c r="F114" s="2"/>
       <c r="G114" s="2"/>
       <c r="H114" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I114" s="14">
         <v>1</v>
@@ -2869,7 +2869,7 @@
       <c r="A115" s="32"/>
       <c r="B115" s="28"/>
       <c r="C115" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D115" s="2"/>
       <c r="E115" s="2"/>
@@ -2878,7 +2878,7 @@
       </c>
       <c r="G115" s="2"/>
       <c r="H115" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I115" s="14">
         <v>2</v>
@@ -2888,7 +2888,7 @@
       <c r="A116" s="32"/>
       <c r="B116" s="28"/>
       <c r="C116" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D116" s="2" t="s">
         <v>8</v>
@@ -2897,7 +2897,7 @@
       <c r="F116" s="2"/>
       <c r="G116" s="2"/>
       <c r="H116" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I116" s="14">
         <v>3</v>
@@ -2907,7 +2907,7 @@
       <c r="A117" s="32"/>
       <c r="B117" s="28"/>
       <c r="C117" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D117" s="2"/>
       <c r="E117" s="2"/>
@@ -2916,7 +2916,7 @@
       </c>
       <c r="G117" s="2"/>
       <c r="H117" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I117" s="14">
         <v>2</v>
@@ -2926,7 +2926,7 @@
       <c r="A118" s="32"/>
       <c r="B118" s="28"/>
       <c r="C118" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D118" s="2"/>
       <c r="E118" s="2"/>
@@ -2935,7 +2935,7 @@
       </c>
       <c r="G118" s="2"/>
       <c r="H118" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I118" s="14">
         <v>1</v>
@@ -2945,7 +2945,7 @@
       <c r="A119" s="32"/>
       <c r="B119" s="28"/>
       <c r="C119" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D119" s="2"/>
       <c r="E119" s="2"/>
@@ -2954,7 +2954,7 @@
       </c>
       <c r="G119" s="2"/>
       <c r="H119" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I119" s="14">
         <v>1</v>
@@ -2964,7 +2964,7 @@
       <c r="A120" s="32"/>
       <c r="B120" s="28"/>
       <c r="C120" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D120" s="2" t="s">
         <v>8</v>
@@ -2973,7 +2973,7 @@
       <c r="F120" s="2"/>
       <c r="G120" s="2"/>
       <c r="H120" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I120" s="14">
         <v>3</v>
@@ -2983,7 +2983,7 @@
       <c r="A121" s="32"/>
       <c r="B121" s="28"/>
       <c r="C121" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D121" s="2" t="s">
         <v>8</v>
@@ -2992,7 +2992,7 @@
       <c r="F121" s="2"/>
       <c r="G121" s="2"/>
       <c r="H121" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I121" s="14">
         <v>2</v>
@@ -3002,7 +3002,7 @@
       <c r="A122" s="32"/>
       <c r="B122" s="28"/>
       <c r="C122" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D122" s="2"/>
       <c r="E122" s="2"/>
@@ -3011,7 +3011,7 @@
         <v>8</v>
       </c>
       <c r="H122" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I122" s="14">
         <v>3</v>
@@ -3021,7 +3021,7 @@
       <c r="A123" s="32"/>
       <c r="B123" s="28"/>
       <c r="C123" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D123" s="2"/>
       <c r="E123" s="2"/>
@@ -3030,7 +3030,7 @@
         <v>8</v>
       </c>
       <c r="H123" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I123" s="14">
         <v>2</v>
@@ -3040,7 +3040,7 @@
       <c r="A124" s="32"/>
       <c r="B124" s="28"/>
       <c r="C124" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D124" s="2" t="s">
         <v>8</v>
@@ -3049,7 +3049,7 @@
       <c r="F124" s="2"/>
       <c r="G124" s="2"/>
       <c r="H124" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I124" s="14">
         <v>1</v>
@@ -3059,7 +3059,7 @@
       <c r="A125" s="32"/>
       <c r="B125" s="28"/>
       <c r="C125" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D125" s="2" t="s">
         <v>8</v>
@@ -3068,7 +3068,7 @@
       <c r="F125" s="2"/>
       <c r="G125" s="2"/>
       <c r="H125" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I125" s="14">
         <v>1</v>
@@ -3078,7 +3078,7 @@
       <c r="A126" s="32"/>
       <c r="B126" s="28"/>
       <c r="C126" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D126" s="2"/>
       <c r="E126" s="2"/>
@@ -3091,7 +3091,7 @@
       <c r="A127" s="32"/>
       <c r="B127" s="28"/>
       <c r="C127" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D127" s="2"/>
       <c r="E127" s="2" t="s">
@@ -3100,7 +3100,7 @@
       <c r="F127" s="2"/>
       <c r="G127" s="2"/>
       <c r="H127" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I127" s="14">
         <v>4</v>
@@ -3110,7 +3110,7 @@
       <c r="A128" s="32"/>
       <c r="B128" s="28"/>
       <c r="C128" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D128" s="2"/>
       <c r="E128" s="2" t="s">
@@ -3119,7 +3119,7 @@
       <c r="F128" s="2"/>
       <c r="G128" s="2"/>
       <c r="H128" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I128" s="14">
         <v>4</v>
@@ -3129,7 +3129,7 @@
       <c r="A129" s="32"/>
       <c r="B129" s="28"/>
       <c r="C129" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D129" s="2"/>
       <c r="E129" s="2"/>
@@ -3144,7 +3144,7 @@
       <c r="A130" s="32"/>
       <c r="B130" s="28"/>
       <c r="C130" s="25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D130" s="2"/>
       <c r="E130" s="2"/>
@@ -3157,7 +3157,7 @@
       <c r="A131" s="32"/>
       <c r="B131" s="28"/>
       <c r="C131" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D131" s="2"/>
       <c r="E131" s="2"/>
@@ -3170,7 +3170,7 @@
       <c r="A132" s="32"/>
       <c r="B132" s="28"/>
       <c r="C132" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D132" s="2"/>
       <c r="E132" s="2"/>
@@ -3185,7 +3185,7 @@
       <c r="A133" s="32"/>
       <c r="B133" s="28"/>
       <c r="C133" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D133" s="2"/>
       <c r="E133" s="2"/>
@@ -3200,7 +3200,7 @@
       <c r="A134" s="32"/>
       <c r="B134" s="28"/>
       <c r="C134" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D134" s="2"/>
       <c r="E134" s="2"/>
@@ -3215,7 +3215,7 @@
       <c r="A135" s="32"/>
       <c r="B135" s="28"/>
       <c r="C135" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D135" s="2"/>
       <c r="E135" s="2"/>
@@ -3230,7 +3230,7 @@
       <c r="A136" s="32"/>
       <c r="B136" s="28"/>
       <c r="C136" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D136" s="2"/>
       <c r="E136" s="2"/>
@@ -3245,7 +3245,7 @@
       <c r="A137" s="32"/>
       <c r="B137" s="28"/>
       <c r="C137" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D137" s="2"/>
       <c r="E137" s="2"/>
@@ -3258,7 +3258,7 @@
       <c r="A138" s="32"/>
       <c r="B138" s="28"/>
       <c r="C138" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D138" s="2"/>
       <c r="E138" s="2"/>
@@ -3273,7 +3273,7 @@
       <c r="A139" s="32"/>
       <c r="B139" s="28"/>
       <c r="C139" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D139" s="2"/>
       <c r="E139" s="2"/>
@@ -3288,7 +3288,7 @@
       <c r="A140" s="32"/>
       <c r="B140" s="28"/>
       <c r="C140" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D140" s="2"/>
       <c r="E140" s="2"/>
@@ -3303,7 +3303,7 @@
       <c r="A141" s="32"/>
       <c r="B141" s="28"/>
       <c r="C141" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D141" s="2"/>
       <c r="E141" s="2"/>
@@ -3318,7 +3318,7 @@
       <c r="A142" s="32"/>
       <c r="B142" s="28"/>
       <c r="C142" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D142" s="2"/>
       <c r="E142" s="2"/>
@@ -3331,7 +3331,7 @@
       <c r="A143" s="32"/>
       <c r="B143" s="28"/>
       <c r="C143" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D143" s="2"/>
       <c r="E143" s="2"/>
@@ -3346,7 +3346,7 @@
       <c r="A144" s="32"/>
       <c r="B144" s="28"/>
       <c r="C144" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D144" s="2"/>
       <c r="E144" s="2"/>
@@ -3361,7 +3361,7 @@
       <c r="A145" s="32"/>
       <c r="B145" s="28"/>
       <c r="C145" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D145" s="2"/>
       <c r="E145" s="2"/>
@@ -3376,7 +3376,7 @@
       <c r="A146" s="32"/>
       <c r="B146" s="28"/>
       <c r="C146" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D146" s="2"/>
       <c r="E146" s="2"/>
@@ -3391,7 +3391,7 @@
       <c r="A147" s="32"/>
       <c r="B147" s="28"/>
       <c r="C147" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D147" s="2"/>
       <c r="E147" s="2"/>
@@ -3406,7 +3406,7 @@
       <c r="A148" s="32"/>
       <c r="B148" s="28"/>
       <c r="C148" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D148" s="2"/>
       <c r="E148" s="2"/>
@@ -3421,7 +3421,7 @@
       <c r="A149" s="32"/>
       <c r="B149" s="28"/>
       <c r="C149" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D149" s="2"/>
       <c r="E149" s="2"/>
@@ -3436,7 +3436,7 @@
       <c r="A150" s="32"/>
       <c r="B150" s="28"/>
       <c r="C150" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D150" s="2"/>
       <c r="E150" s="2"/>
@@ -3451,7 +3451,7 @@
       <c r="A151" s="32"/>
       <c r="B151" s="28"/>
       <c r="C151" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D151" s="2"/>
       <c r="E151" s="2"/>
@@ -3466,7 +3466,7 @@
       <c r="A152" s="32"/>
       <c r="B152" s="28"/>
       <c r="C152" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D152" s="2"/>
       <c r="E152" s="2" t="s">
@@ -3481,7 +3481,7 @@
       <c r="A153" s="32"/>
       <c r="B153" s="28"/>
       <c r="C153" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D153" s="2"/>
       <c r="E153" s="2" t="s">
@@ -3496,7 +3496,7 @@
       <c r="A154" s="32"/>
       <c r="B154" s="28"/>
       <c r="C154" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D154" s="2"/>
       <c r="E154" s="2" t="s">
@@ -3511,7 +3511,7 @@
       <c r="A155" s="32"/>
       <c r="B155" s="28"/>
       <c r="C155" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D155" s="2"/>
       <c r="E155" s="2"/>
@@ -3526,7 +3526,7 @@
       <c r="A156" s="32"/>
       <c r="B156" s="28"/>
       <c r="C156" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D156" s="2"/>
       <c r="E156" s="2"/>
@@ -3541,7 +3541,7 @@
       <c r="A157" s="32"/>
       <c r="B157" s="28"/>
       <c r="C157" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D157" s="2"/>
       <c r="E157" s="2"/>
@@ -3556,7 +3556,7 @@
       <c r="A158" s="32"/>
       <c r="B158" s="28"/>
       <c r="C158" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D158" s="2"/>
       <c r="E158" s="2"/>
@@ -3571,7 +3571,7 @@
       <c r="A159" s="32"/>
       <c r="B159" s="28"/>
       <c r="C159" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D159" s="2"/>
       <c r="E159" s="2" t="s">
@@ -3586,7 +3586,7 @@
       <c r="A160" s="32"/>
       <c r="B160" s="28"/>
       <c r="C160" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D160" s="2"/>
       <c r="E160" s="2" t="s">
@@ -3601,7 +3601,7 @@
       <c r="A161" s="32"/>
       <c r="B161" s="28"/>
       <c r="C161" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D161" s="2"/>
       <c r="E161" s="2"/>
@@ -3614,7 +3614,7 @@
       <c r="A162" s="32"/>
       <c r="B162" s="28"/>
       <c r="C162" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D162" s="2" t="s">
         <v>8</v>
@@ -3629,7 +3629,7 @@
       <c r="A163" s="32"/>
       <c r="B163" s="28"/>
       <c r="C163" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D163" s="2" t="s">
         <v>8</v>
@@ -3644,7 +3644,7 @@
       <c r="A164" s="32"/>
       <c r="B164" s="28"/>
       <c r="C164" s="25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D164" s="2"/>
       <c r="E164" s="2"/>
@@ -3657,7 +3657,7 @@
       <c r="A165" s="32"/>
       <c r="B165" s="28"/>
       <c r="C165" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D165" s="2"/>
       <c r="E165" s="2"/>
@@ -3670,7 +3670,7 @@
       <c r="A166" s="32"/>
       <c r="B166" s="28"/>
       <c r="C166" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D166" s="2"/>
       <c r="E166" s="2"/>
@@ -3685,7 +3685,7 @@
       <c r="A167" s="32"/>
       <c r="B167" s="28"/>
       <c r="C167" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D167" s="2"/>
       <c r="E167" s="2"/>
@@ -3700,7 +3700,7 @@
       <c r="A168" s="32"/>
       <c r="B168" s="28"/>
       <c r="C168" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D168" s="2"/>
       <c r="E168" s="2"/>
@@ -3715,7 +3715,7 @@
       <c r="A169" s="32"/>
       <c r="B169" s="28"/>
       <c r="C169" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D169" s="2"/>
       <c r="E169" s="2"/>
@@ -3730,7 +3730,7 @@
       <c r="A170" s="32"/>
       <c r="B170" s="28"/>
       <c r="C170" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D170" s="2"/>
       <c r="E170" s="2"/>
@@ -3745,7 +3745,7 @@
       <c r="A171" s="32"/>
       <c r="B171" s="28"/>
       <c r="C171" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D171" s="2"/>
       <c r="E171" s="2"/>
@@ -3758,7 +3758,7 @@
       <c r="A172" s="32"/>
       <c r="B172" s="28"/>
       <c r="C172" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D172" s="2"/>
       <c r="E172" s="2"/>
@@ -3773,7 +3773,7 @@
       <c r="A173" s="32"/>
       <c r="B173" s="28"/>
       <c r="C173" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D173" s="2"/>
       <c r="E173" s="2"/>
@@ -3788,7 +3788,7 @@
       <c r="A174" s="32"/>
       <c r="B174" s="28"/>
       <c r="C174" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D174" s="2"/>
       <c r="E174" s="2"/>
@@ -3803,7 +3803,7 @@
       <c r="A175" s="32"/>
       <c r="B175" s="28"/>
       <c r="C175" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D175" s="2"/>
       <c r="E175" s="2"/>
@@ -3818,7 +3818,7 @@
       <c r="A176" s="32"/>
       <c r="B176" s="28"/>
       <c r="C176" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D176" s="2"/>
       <c r="E176" s="2"/>
@@ -3831,7 +3831,7 @@
       <c r="A177" s="32"/>
       <c r="B177" s="28"/>
       <c r="C177" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D177" s="2"/>
       <c r="E177" s="2"/>
@@ -3846,7 +3846,7 @@
       <c r="A178" s="32"/>
       <c r="B178" s="28"/>
       <c r="C178" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D178" s="2"/>
       <c r="E178" s="2"/>
@@ -3861,7 +3861,7 @@
       <c r="A179" s="32"/>
       <c r="B179" s="28"/>
       <c r="C179" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D179" s="2"/>
       <c r="E179" s="2"/>
@@ -3876,7 +3876,7 @@
       <c r="A180" s="32"/>
       <c r="B180" s="28"/>
       <c r="C180" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D180" s="2"/>
       <c r="E180" s="2"/>
@@ -3891,7 +3891,7 @@
       <c r="A181" s="32"/>
       <c r="B181" s="28"/>
       <c r="C181" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D181" s="2"/>
       <c r="E181" s="2"/>
@@ -3906,7 +3906,7 @@
       <c r="A182" s="32"/>
       <c r="B182" s="28"/>
       <c r="C182" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D182" s="2"/>
       <c r="E182" s="2"/>
@@ -3921,7 +3921,7 @@
       <c r="A183" s="32"/>
       <c r="B183" s="28"/>
       <c r="C183" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D183" s="2"/>
       <c r="E183" s="2"/>
@@ -3936,7 +3936,7 @@
       <c r="A184" s="32"/>
       <c r="B184" s="28"/>
       <c r="C184" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D184" s="2"/>
       <c r="E184" s="2"/>
@@ -3951,7 +3951,7 @@
       <c r="A185" s="32"/>
       <c r="B185" s="28"/>
       <c r="C185" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D185" s="2"/>
       <c r="E185" s="2"/>
@@ -3966,7 +3966,7 @@
       <c r="A186" s="32"/>
       <c r="B186" s="28"/>
       <c r="C186" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D186" s="2"/>
       <c r="E186" s="2" t="s">
@@ -3981,7 +3981,7 @@
       <c r="A187" s="32"/>
       <c r="B187" s="28"/>
       <c r="C187" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D187" s="2"/>
       <c r="E187" s="2" t="s">
@@ -3996,7 +3996,7 @@
       <c r="A188" s="32"/>
       <c r="B188" s="28"/>
       <c r="C188" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D188" s="2"/>
       <c r="E188" s="2" t="s">
@@ -4011,7 +4011,7 @@
       <c r="A189" s="32"/>
       <c r="B189" s="28"/>
       <c r="C189" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D189" s="2"/>
       <c r="E189" s="2"/>
@@ -4026,7 +4026,7 @@
       <c r="A190" s="32"/>
       <c r="B190" s="28"/>
       <c r="C190" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D190" s="2"/>
       <c r="E190" s="2"/>
@@ -4041,7 +4041,7 @@
       <c r="A191" s="32"/>
       <c r="B191" s="28"/>
       <c r="C191" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D191" s="2"/>
       <c r="E191" s="2"/>
@@ -4056,7 +4056,7 @@
       <c r="A192" s="32"/>
       <c r="B192" s="28"/>
       <c r="C192" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D192" s="2"/>
       <c r="E192" s="2"/>
@@ -4071,7 +4071,7 @@
       <c r="A193" s="32"/>
       <c r="B193" s="28"/>
       <c r="C193" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D193" s="2"/>
       <c r="E193" s="2" t="s">
@@ -4086,7 +4086,7 @@
       <c r="A194" s="32"/>
       <c r="B194" s="28"/>
       <c r="C194" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D194" s="2"/>
       <c r="E194" s="2" t="s">
@@ -4101,7 +4101,7 @@
       <c r="A195" s="32"/>
       <c r="B195" s="28"/>
       <c r="C195" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D195" s="2"/>
       <c r="E195" s="2"/>
@@ -4114,7 +4114,7 @@
       <c r="A196" s="32"/>
       <c r="B196" s="28"/>
       <c r="C196" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D196" s="2" t="s">
         <v>8</v>
@@ -4129,7 +4129,7 @@
       <c r="A197" s="32"/>
       <c r="B197" s="28"/>
       <c r="C197" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D197" s="2" t="s">
         <v>8</v>
@@ -4148,7 +4148,7 @@
         <v>7</v>
       </c>
       <c r="C198" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D198" s="2"/>
       <c r="E198" s="2"/>
@@ -4163,7 +4163,7 @@
       <c r="A199" s="30"/>
       <c r="B199" s="27"/>
       <c r="C199" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D199" s="2"/>
       <c r="E199" s="2"/>
@@ -4186,11 +4186,11 @@
     </row>
     <row r="201" spans="1:9" ht="15">
       <c r="A201" s="26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B201" s="19"/>
       <c r="C201" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D201" s="3"/>
       <c r="E201" s="3"/>
@@ -4203,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="B202" s="19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C202" s="4">
         <v>1</v>
@@ -4219,7 +4219,7 @@
         <v>1</v>
       </c>
       <c r="B203" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C203" s="21">
         <v>2</v>
@@ -4235,7 +4235,7 @@
         <v>2</v>
       </c>
       <c r="B204" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C204" s="21">
         <v>3</v>
@@ -4251,7 +4251,7 @@
         <v>3</v>
       </c>
       <c r="B205" s="20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C205" s="21">
         <v>4</v>
@@ -4267,7 +4267,7 @@
         <v>4</v>
       </c>
       <c r="B206" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C206" s="21">
         <v>5</v>
@@ -4283,7 +4283,7 @@
         <v>5</v>
       </c>
       <c r="B207" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C207" s="21"/>
       <c r="D207" s="3"/>
